--- a/experiments/dbscan-ajk/simcse/0.1/prediction.xlsx
+++ b/experiments/dbscan-ajk/simcse/0.1/prediction.xlsx
@@ -458,137 +458,137 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Another aircraft is nearby. Another aircraft is approaching. Descend as soon as possible</t>
+          <t>A passenger aircraft is nearby. Fly with caution</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A passenger aircraft is nearby. Fly with caution</t>
+          <t>AE Locked. Metering disabled</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Another aircraft is nearby. Fly with caution</t>
+          <t>APAS has been enabled</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Manned aircraft detected nearby. Fly with caution</t>
+          <t>API Automatic Return Home</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Abnormal compass function or GPS signal detected. Aircraft switched to ATTI mode</t>
+          <t>API Automatic Takeoff</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Accelerator is Over Range</t>
+          <t>Abnormal compass function or GPS signal detected. Aircraft switched to ATTI mode</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Account not logged in. Flight altitude and distance restricted to nnn and nnn. Check and log in</t>
+          <t>Accelerator is Over Range</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ActiveTrack Flight Ended: Aircraft is entering a restricted area</t>
+          <t>Account not logged in. Flight altitude and distance restricted to nnn and nnn. Check and log in</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ActiveTrack Flight Ended: Cannot find subject</t>
+          <t>ActiveTrack Flight Ended: Aircraft is entering a restricted area</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ActiveTrack Flight Ended: Control Signal Timeout (RC)</t>
+          <t>ActiveTrack Flight Ended: Cannot find subject</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ActiveTrack Flight Paused</t>
+          <t>ActiveTrack Flight Ended: Control Signal Timeout (RC)</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ActiveTrack Flight Stopped Aircraft Entering Restricted Area</t>
+          <t>ActiveTrack Flight Paused</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Advanced RTH Image Transmission Recovered. Aircraft is returning home</t>
+          <t>ActiveTrack Flight Stopped Aircraft Entering Restricted Area</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Image Transmission Recovered. Aircraft is returning home.</t>
+          <t>Advanced RTH Image Transmission Recovered. Aircraft is returning home</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -598,11 +598,11 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>AE Locked. Metering disabled</t>
+          <t>AirSense communication error. Unable to display nearby manned aircraft and anti-collision warnings. Fly with caution</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>11</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18">
@@ -648,141 +648,141 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Aircraft antenna satellite signal searching error. Fly with caution</t>
+          <t>Aircraft Core Board Overheated</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Aircraft approaching obstacle sensing blind spot and may be unable to detect obstacles. Fly with caution</t>
+          <t>Aircraft GPS interference. Aircraft unable to fly stably. Land or return to home promptly</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Aircraft battery level low. Return to home promptly</t>
+          <t>Aircraft GPS signal too weak. Home Point not updated</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Aircraft close to Home Point. go home shifts to landing.</t>
+          <t>Aircraft antenna satellite signal searching error. Fly with caution</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Aircraft Core Board Overheated</t>
+          <t>Aircraft approaching obstacle sensing blind spot and may be unable to detect obstacles. Fly with caution</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Aircraft entered Fixed-Wing Mode. Current flight speed is nnn. Press C2 to exit</t>
+          <t>Aircraft battery level low. Return to home promptly</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Aircraft exceeded distance limit and has exited Hyperlapse mode</t>
+          <t>Aircraft close to Home Point. go home shifts to landing.</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Aircraft flight control locked</t>
+          <t>Aircraft entered Fixed-Wing Mode. Current flight speed is nnn. Press C2 to exit</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Aircraft flight control obtained by remote controller A</t>
+          <t>Aircraft exceeded distance limit and has exited Hyperlapse mode</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Aircraft flight control obtained by remote controller B</t>
+          <t>Aircraft flight control locked</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Aircraft flight control obtained by remote controller UNKNOWN</t>
+          <t>Aircraft flight control obtained by remote controller A</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Aircraft flight control unlocked</t>
+          <t>Aircraft flight control obtained by remote controller B</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Aircraft GPS interference. Aircraft unable to fly stably. Land or return to home promptly</t>
+          <t>Aircraft flight control obtained by remote controller UNKNOWN</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Aircraft GPS signal too weak. Home Point not updated</t>
+          <t>Aircraft flight control unlocked</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36">
@@ -808,67 +808,67 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Aircraft is in Attitude mode, so that it will not hover. Please fly with caution.</t>
+          <t>Aircraft in Authorization Zone. Unable to take off before unlocking</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Aircraft in Authorization Zone. Unable to take off before unlocking</t>
+          <t>Aircraft in Restricted Zone. Unable to take off. Check map to find Recommended Zones</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Aircraft in high interference environment. Fly with caution</t>
+          <t>Aircraft in Restricted Zones. Check map to find Recommended Zones</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Aircraft in high interference environment. Manually adjust flight route or return to home</t>
+          <t>Aircraft in high interference environment. Fly with caution</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Aircraft in Restricted Zone. Unable to take off. Check map to find Recommended Zones</t>
+          <t>Aircraft in high interference environment. Manually adjust flight route or return to home</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Aircraft in Restricted Zones. Check map to find Recommended Zones</t>
+          <t>Aircraft is close to Home Point. Return-to-Home Mode is now Auto Landing Mode.</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Aircraft is close to Home Point. Return-to-Home Mode is now Auto Landing Mode.</t>
+          <t>Aircraft is close to the Home Point. Initiating Return to Home will now trigger Auto Landing.</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -878,107 +878,107 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Aircraft is close to the Home Point. Initiating Return to Home will now trigger Auto Landing.</t>
+          <t>Aircraft is entering a restricted area</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Aircraft is entering a restricted area</t>
+          <t>Aircraft is flying back to the start point</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Aircraft is flying back to the start point</t>
+          <t>Aircraft is in Attitude mode, so that it will not hover. Please fly with caution.</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the starting point</t>
+          <t>Aircraft is in QuickShot Mode. Ensure your enviornment is free of potential obstacles.</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>The aircraft is flying back to the start point</t>
+          <t>Aircraft is in Sport Mode. Exit this mode and try again</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Aircraft is in QuickShot Mode. Ensure your enviornment is free of potential obstacles.</t>
+          <t>Aircraft is in Tripod Mode. Exit this mode and try again</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Aircraft is in Sport Mode. Exit this mode and try again</t>
+          <t>Aircraft is landing due to low voltage, which cannot be stopped. You can decelerate the descending speed and avoid obstacles using sticks</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Aircraft is in Tripod Mode. Exit this mode and try again</t>
+          <t>Aircraft is now following you.</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Aircraft is landing due to low voltage, which cannot be stopped. You can decelerate the descending speed and avoid obstacles using sticks</t>
+          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary.</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Aircraft is now following you.</t>
+          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary.</t>
+          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -988,7 +988,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
+          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 98ft. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -998,7 +998,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
+          <t>Aircraft is returning to the Home Point. RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary.</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -1008,7 +1008,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 98ft. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
+          <t>Aircraft is returning to the Home Point. RTH Altitude is nnn. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -1018,211 +1018,211 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary.</t>
+          <t>Aircraft is returning to the starting point</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. RTH Altitude is nnn. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary</t>
+          <t>Aircraft is tilted, please keep the aircraft stationary and level before flight</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Aircraft is tilted, please keep the aircraft stationary and level before flight</t>
+          <t>Aircraft is too far away</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Aircraft is too far away</t>
+          <t>Aircraft max power load reached. Decrease altitude and fly with caution. If this issue persists, land immediately</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Aircraft max power load reached. Decrease altitude and fly with caution. If this issue persists, land immediately</t>
+          <t>Aircraft not in flight. Vision system and obstacle sensing unavailable</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Aircraft not in flight. Vision system and obstacle sensing unavailable</t>
+          <t>Aircraft not linked to phone number. Flight range restricted. Check and link phone number</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Aircraft not linked to phone number. Flight range restricted. Check and link phone number</t>
+          <t>Aircraft out of Range</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Aircraft out of Range</t>
+          <t>Aircraft pitch angle too large. Ensure aircraft is level before taking off</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Aircraft pitch angle too large. Ensure aircraft is level before taking off</t>
+          <t>Aircraft power insufficient. Fly with caution</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Aircraft power insufficient. Fly with caution</t>
+          <t>Aircraft processor chip overheated. Power off aircraft and wait for temperature to return to normal</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Aircraft processor chip overheated. Power off aircraft and wait for temperature to return to normal</t>
+          <t>Aircraft processor overheated. Automatically returning to home</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Aircraft processor overheated. Automatically returning to home</t>
+          <t>Aircraft propulsion system error. Forced landing. Manually control the aircraft and land in an open area</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Aircraft propulsion system error. Forced landing. Manually control the aircraft and land in an open area</t>
+          <t>Aircraft settings updated to comply with national regulations</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Aircraft settings updated to comply with national regulations</t>
+          <t>Aircraft switched to ATTI mode</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Aircraft switched to ATTI mode</t>
+          <t>Aircraft takeoff altitude error. Restart aircraft</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Aircraft takeoff altitude error. Restart aircraft</t>
+          <t>Aircraft too Far. Cannot enter Follow Me Mode</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Aircraft too Far. Cannot enter Follow Me Mode</t>
+          <t>Aircraft unable to return to home automatically. Lower altitude immediately and return to home manually</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Aircraft unable to return to home automatically. Lower altitude immediately and return to home manually</t>
+          <t>Aircraft will automatically descend in nnn</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Aircraft will automatically descend in nnn</t>
+          <t>Aircraft will not enter S-mode if powered on with the remote controller set to S-mode. Please switch to Normal mode, then back to S-mode to enable it</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Aircraft will not enter S-mode if powered on with the remote controller set to S-mode. Please switch to Normal mode, then back to S-mode to enable it</t>
+          <t>Altitude Less than nnn. Cannot enable Follow Me Mode</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>AirSense communication error. Unable to display nearby manned aircraft and anti-collision warnings. Fly with caution</t>
+          <t>Altitude Zone nnn</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="80">
@@ -1238,47 +1238,47 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Altitude Less than nnn. Cannot enable Follow Me Mode</t>
+          <t>Ambient Light is too weak.</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Altitude Zone nnn</t>
+          <t>Ambient Light too Weak</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Ambient Light is too weak.</t>
+          <t>Ambient Light too Weak, Backward obstacle sensing is unavailable. please ensure safety during the flight</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Ambient Light too Weak</t>
+          <t>Ambient Light too Weak, Forward obstacle sensing is unavailable. please ensure safety during the flight</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Ambient light too low. Vision system and obstacle sensing unavailable. Fly with caution</t>
+          <t>Ambient Light too Weak, Vision Positioning obstacle sensing is unavailable. please ensure safety during the flight</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -1288,7 +1288,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Ambient Light too Weak, Backward obstacle sensing is unavailable. please ensure safety during the flight</t>
+          <t>Ambient light too low. Vision system and obstacle sensing unavailable. Fly with caution</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -1298,2567 +1298,2567 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Ambient Light too Weak, Forward obstacle sensing is unavailable. please ensure safety during the flight</t>
+          <t>Another aircraft is dangerously close, please descend to a safer altitude</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Ambient Light too Weak, Vision Positioning obstacle sensing is unavailable. please ensure safety during the flight</t>
+          <t>Another aircraft is nearby. Another aircraft is approaching. Descend as soon as possible</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Backward ambient light too low. Backward obstacle avoidance unavailable. Only infrared sensors available. Fly with caution</t>
+          <t>Another aircraft is nearby. Fly with caution</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>66</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Downward ambient light too low. Obstacle avoidance unavailable. Fly with caution</t>
+          <t>Approaching NFZ or pre-set distance limit of (nnn). Revise Flight Route</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Downward ambient light too low. Obstacle avoidance unavailable. Fly with caution. Backward ambient light too low. Backward obstacle avoidance unavailable. Only infrared sensors available. Fly with caution</t>
+          <t>Approaching a No-Fly Zone. RTH may be affected. Fly with caution</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Lighting environment too dark. Vision System unavailable. Fly with caution</t>
+          <t>Arrived at End Point</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>66</v>
+        <v>74</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Lighting environment too dark. Visual positioning inaccurate. Fly with caution</t>
+          <t>Arrived at Start Point. Starting Waypoint Mission</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>66</v>
+        <v>75</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Another aircraft is dangerously close, please descend to a safer altitude</t>
+          <t>Arrived at destination</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>67</v>
+        <v>73</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>APAS has been enabled</t>
+          <t>At Least Two Waypoints Required</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>API Automatic Return Home</t>
+          <t>At least two Waypoints are needed</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>69</v>
+        <v>76</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>API Automatic Takeoff</t>
+          <t>Attitude is too large.</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>70</v>
+        <v>77</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Approaching a No-Fly Zone. RTH may be affected. Fly with caution</t>
+          <t>Attitude is too large. Backward Obstacle Sensing is not functioning</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>71</v>
+        <v>78</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Approaching NFZ or pre-set distance limit of (nnn). Revise Flight Route</t>
+          <t>Attitude is too large. Backward obstacle sensing is unavailable</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Arrived at destination</t>
+          <t>Attitude is too large. Forward obstacle sensing is unavailable</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>73</v>
+        <v>79</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Arrived at End Point</t>
+          <t>Attitude is too large. Backward Obstacle Sensing is not functioning.</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Arrived at Start Point. Starting Waypoint Mission</t>
+          <t>Auto Landing in nnn(s)</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>At least two Waypoints are needed</t>
+          <t>Auto landing initiated</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>At Least Two Waypoints Required</t>
+          <t>Auxiliary Bottom Light set to automatic mode</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Attitude is too large.</t>
+          <t>Auxiliary Bottom Light turned off</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Attitude is too large. Backward Obstacle Sensing is not functioning</t>
+          <t>Auxiliary Bottom Light turned on</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Attitude is too large. Backward obstacle sensing is unavailable</t>
+          <t>Away and Follow in progress.</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Attitude is too large. Backward Obstacle Sensing is not functioning.</t>
+          <t>Backward Obstacle Sensing is not functioning.</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Attitude is too large. Forward obstacle sensing is unavailable</t>
+          <t>Backward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>79</v>
+        <v>87</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Auto Landing in nnn(s)</t>
+          <t>Backward ambient light too low. Backward obstacle avoidance unavailable. Only infrared sensors available. Fly with caution</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>80</v>
+        <v>66</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Auto landing initiated</t>
+          <t>Backward sensor(s) blocked. Obstacle avoidance unavailable. Fly with caution</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>81</v>
+        <v>88</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Auxiliary Bottom Light set to automatic mode</t>
+          <t>Barometer Dead in Air</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>82</v>
+        <v>89</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Auxiliary Bottom Light turned off</t>
+          <t>Barometer initialization failed. Restart aircraft</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>83</v>
+        <v>90</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Auxiliary Bottom Light turned on</t>
+          <t>Battery Alert Battery installation error. Please check the batteries are inserted correctly</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Away and Follow in progress.</t>
+          <t>Battery Signal Error. Check battery connection.</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>85</v>
+        <v>103</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Backward Obstacle Sensing is not functioning.</t>
+          <t>Battery Voltage Difference too large. Check Battery Status</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>86</v>
+        <v>106</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing is not functioning.</t>
+          <t>Battery cell broken, please replace the battery</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing not Working.</t>
+          <t>Battery cells undervoltage</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>86</v>
+        <v>93</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Backward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
+          <t>Battery communication malfunction. Reinstall battery. If the issue persists, replace battery</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Downward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
+          <t>Battery error. Aircraft returning to home automatically</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>87</v>
+        <v>95</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
+          <t>Battery installed incorrectly. Detach battery and reinstall it</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>87</v>
+        <v>96</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Backward sensor(s) blocked. Obstacle avoidance unavailable. Fly with caution</t>
+          <t>Battery level low. Charge battery</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>88</v>
+        <v>97</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Barometer Dead in Air</t>
+          <t>Battery nnn requires maintenance</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>89</v>
+        <v>98</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Barometer initialization failed. Restart aircraft</t>
+          <t>Battery not installed properly. Return to home immediately. Check and re-install battery</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>90</v>
+        <v>99</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Compass initialization failed. Restart aircraft</t>
+          <t>Battery overheating. Stop flying and wait for battery temperature to return to normal</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>GPS module error. Restart aircraft</t>
+          <t>Battery power limit will automatically reduce the aircraft's mobility to ensure flight safety</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>90</v>
+        <v>101</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Gyroscope initialization failed. Restart aircraft</t>
+          <t>Battery power low. Check battery status and charge or warm up battery</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Navigation system error. Restart aircraft</t>
+          <t>Battery power restricted. Aircraft performance decreased to ensure flight safety. Return to home promptly</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>90</v>
+        <v>102</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Battery Alert Battery installation error. Please check the batteries are inserted correctly</t>
+          <t>Battery temperature is below 15 degrees Celsius. Warm up the battery temperature to above 25 degree Celsius to ensure a safe flight.</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>91</v>
+        <v>104</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Battery cell broken, please replace the battery</t>
+          <t>Battery temperature too low. Fly with caution</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>92</v>
+        <v>105</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Battery cells undervoltage</t>
+          <t>Battery: Battery Error. Return home and land soon. View the checklist after landing</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>93</v>
+        <v>107</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Battery communication malfunction. Reinstall battery. If the issue persists, replace battery</t>
+          <t>Battery: Connection Error</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>94</v>
+        <v>108</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Battery error. Aircraft returning to home automatically</t>
+          <t>Battery: Low Voltage Protection</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>95</v>
+        <v>109</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Battery installed incorrectly. Detach battery and reinstall it</t>
+          <t>Battery: Overcurrent During Discharge</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>96</v>
+        <v>110</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Battery level low. Charge battery</t>
+          <t>Braking now! No use to move the stick right. Avoid the obstacle</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>97</v>
+        <v>111</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Battery power low. Check battery status and charge or warm up battery</t>
+          <t>Braking now! Return sticks to midpoints first.</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>97</v>
+        <v>112</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Battery nnn requires maintenance</t>
+          <t>Braking now. Return sticks to midpoints, then continue flying.</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>98</v>
+        <v>113</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Battery not installed properly. Return to home immediately. Check and re-install battery</t>
+          <t>Cache Space Full</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>99</v>
+        <v>114</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Battery overheating. Stop flying and wait for battery temperature to return to normal</t>
+          <t>Calibration subject is too close. Recalibrate using a subject that is farther away</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>100</v>
+        <v>115</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Battery power limit will automatically reduce the aircraft's mobility to ensure flight safety</t>
+          <t>Calibration target not far away enough. Please calibrate using infinity</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>101</v>
+        <v>116</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Battery power restricted. Aircraft performance decreased to ensure flight safety. Return to home promptly</t>
+          <t>Camera Error. Solution: Restart the aircraft, if the problem persists, contact DJI Support</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>102</v>
+        <v>119</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Battery Signal Error. Check battery connection.</t>
+          <t>Camera RCAM not connected. Image quality affected. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>103</v>
+        <v>120</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Battery temperature is below 15 degrees Celsius. Warm up the battery temperature to above 25 degree Celsius to ensure a safe flight.</t>
+          <t>Camera Settings ActiveTrack Optimized</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>104</v>
+        <v>121</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Battery temperature too low. Fly with caution</t>
+          <t>Camera Settings Adjusted</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>105</v>
+        <v>122</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Low battery voltage. Fly with caution</t>
+          <t>Camera Settings Adjusted to ActiveTrack</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>105</v>
+        <v>121</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Battery Voltage Difference too large. Check Battery Status</t>
+          <t>Camera busy, cannot enter playback</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>106</v>
+        <v>117</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Battery: Battery Error. Return home and land soon. View the checklist after landing</t>
+          <t>Camera error. AI Spot-Check failed. Restart camera</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>107</v>
+        <v>118</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Battery: Connection Error</t>
+          <t>Camera not calibrated. Image quality affected. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>108</v>
+        <v>120</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Battery: Low Voltage Protection</t>
+          <t>Camera sensor error Hardware malfunction: Contact DJI Support to arrange for repairs</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>109</v>
+        <v>120</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Battery: Overcurrent During Discharge</t>
+          <t>Camera storage full</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>110</v>
+        <v>123</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Braking now! No use to move the stick right. Avoid the obstacle</t>
+          <t>Cancel Landing Failed</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>111</v>
+        <v>124</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Braking now! Return sticks to midpoints first.</t>
+          <t>Cancel Return-to-Home Failed</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>112</v>
+        <v>125</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Braking now. Return sticks to midpoints, then continue flying.</t>
+          <t>Cannot Enter TapFly Cannot fly in that direction</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>113</v>
+        <v>129</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Cache Space Full</t>
+          <t>Cannot Identify Subject</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>114</v>
+        <v>133</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Calibration subject is too close. Recalibrate using a subject that is farther away</t>
+          <t>Cannot Takeoff in Travel Mode. Exit Travel Mode.</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>115</v>
+        <v>138</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Calibration target not far away enough. Please calibrate using infinity</t>
+          <t>Cannot Track Subject. Cannot Identify Subject</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>116</v>
+        <v>140</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Camera busy, cannot enter playback</t>
+          <t>Cannot change current flight mode. Enable Multiple Flight Modes in Settings menu to change.</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>117</v>
+        <v>126</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Camera error. AI Spot-Check failed. Restart camera</t>
+          <t>Cannot enable Intelligent Flight Mode: Low Battery</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>118</v>
+        <v>127</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Camera Error. Solution: Restart the aircraft, if the problem persists, contact DJI Support</t>
+          <t>Cannot enter ActiveTrack. Ambient Light is too weak</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>119</v>
+        <v>128</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Compass Stuck. Restart Aircraft. Contact DJI Support if this persists.</t>
+          <t>Cannot enter TapFly Mode: Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>119</v>
+        <v>130</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Gimbal calibration error. Restart aircraft or contact DJI Support if the issue persists</t>
+          <t>Cannot enter the selected flight mode. Try again later.</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>119</v>
+        <v>131</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Camera not calibrated. Image quality affected. Contact DJI Support for assistance</t>
+          <t>Cannot exit ActiveTrack</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>120</v>
+        <v>132</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Camera RCAM not connected. Image quality affected. Contact DJI Support for assistance</t>
+          <t>Cannot send ActiveTrack command</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>120</v>
+        <v>134</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Camera sensor error Hardware malfunction: Contact DJI Support to arrange for repairs</t>
+          <t>Cannot start Return to Home due to weak GPS signal</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>120</v>
+        <v>135</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Compass data error. Please contact DJI Support</t>
+          <t>Cannot start Self-Timer. Exposure time is too long</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>120</v>
+        <v>136</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Compass Error. Compass data error. Please contact DJI Support</t>
+          <t>Cannot switch flight mode. Turn on "Multiple Flight Modes" to enable Atti and Sport Modes</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Compass Error. Compass data error. Please contact DJI Support. Compass disconnected</t>
+          <t>Cannot switch flight mode. Turn on "Multiple Flight Modes" to enable Atti and Sport Modes.</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Compass Error. Compass Error. Compass data error. Please contact DJI Support</t>
+          <t>Cannot takeoff in a no-fly zone</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>120</v>
+        <v>137</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Downward altitude sensor data error. Please contact DJI Support for help</t>
+          <t>Cannot takeoff. Ensure the aircraft battery is properly connected</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>120</v>
+        <v>139</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Downward vision sensor error. Contact DJI Support for assistance</t>
+          <t>Cannot track subject: Forward Obstacle Sensing not Responding</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>120</v>
+        <v>141</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Forward vision sensor error. Contact DJI Support for assistance</t>
+          <t>Cannot track subject: Gimbal Tilt too Large</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>120</v>
+        <v>142</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Gimbal IMU data error. Contact DJI Support for assistance</t>
+          <t>Cannot track subject: No image. Please retry</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>120</v>
+        <v>143</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Vision sensor error. Contact DJI Support for assistance</t>
+          <t>Cannot track subject: Subject too Large. Move Away and retry</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>120</v>
+        <v>144</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Camera Settings ActiveTrack Optimized</t>
+          <t>Cannot track subject: Subject too Small. Get Closer and retry</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>121</v>
+        <v>145</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Camera Settings Adjusted to ActiveTrack</t>
+          <t>Capture Failed Cannot enter Pano mode</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>121</v>
+        <v>146</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Camera Settings Adjusted</t>
+          <t>Capture Failed Shooting interrupted</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>122</v>
+        <v>147</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Camera storage full</t>
+          <t>Capture Failed Stick movement detected. Panorama has stopped</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>123</v>
+        <v>148</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Cancel Landing Failed</t>
+          <t>Capture Failed. Distance limit exceeded. Cannot shoot panorama</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>124</v>
+        <v>149</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Cancel Return-to-Home Failed</t>
+          <t>Capture Failed. Insufficient storage space. Cannot shoot panorama</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>125</v>
+        <v>150</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Cannot change current flight mode. Enable Multiple Flight Modes in Settings menu to change.</t>
+          <t>Capture Failed. Shooting is currently not permitted</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Cannot switch flight mode. Turn on "Multiple Flight Modes" to enable Atti and Sport Modes</t>
+          <t>Capture Failed. The aircraft is moving. Cannot shoot panorama</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>126</v>
+        <v>152</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Cannot switch flight mode. Turn on "Multiple Flight Modes" to enable Atti and Sport Modes.</t>
+          <t>Capture Failed. The gimbal is moving. Cannot shoot panorama</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>126</v>
+        <v>153</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Cannot enable Intelligent Flight Mode: Low Battery</t>
+          <t>Check whether propellers are installed correctly. If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>127</v>
+        <v>154</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Cannot enter ActiveTrack. Ambient Light is too weak</t>
+          <t>Check whether the propellers are attached to the correct motors based on their markings. Incorrect installation will cause the aircraft to roll over during takeoff</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>128</v>
+        <v>155</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Cannot Enter TapFly Cannot fly in that direction</t>
+          <t>Color display in Liveview is enhanced. Videos and photos will still be shot in D-Log mode</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>129</v>
+        <v>156</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Cannot enter TapFly Mode: Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
+          <t>Color display in the Liveview has been enhanced. Videos and photos will still be shot in D-Log mode</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>130</v>
+        <v>156</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Cannot enter the selected flight mode. Try again later.</t>
+          <t>Command Failed</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>131</v>
+        <v>157</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Cannot exit ActiveTrack</t>
+          <t>Command Timeout</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>132</v>
+        <v>158</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Cannot Identify Subject</t>
+          <t>Compass Error</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>133</v>
+        <v>161</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Cannot send ActiveTrack command</t>
+          <t>Compass Error. Compass Error. Compass data error. Please contact DJI Support</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>134</v>
+        <v>120</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Cannot start Return to Home due to weak GPS signal</t>
+          <t>Compass Error. Compass Error. Compass disconnected</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>135</v>
+        <v>165</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Cannot start Self-Timer. Exposure time is too long</t>
+          <t>Compass Error. Compass Redundancy Switch</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>136</v>
+        <v>167</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Cannot takeoff in a no-fly zone</t>
+          <t>Compass Error. Compass data error. Please check the Compass installation and interference</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>137</v>
+        <v>164</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Cannot Takeoff in Travel Mode. Exit Travel Mode.</t>
+          <t>Compass Error. Compass data error. Please contact DJI Support</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>138</v>
+        <v>120</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Cannot takeoff. Ensure the aircraft battery is properly connected</t>
+          <t>Compass Error. Compass data error. Please contact DJI Support. Compass disconnected</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>139</v>
+        <v>120</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Cannot Track Subject. Cannot Identify Subject</t>
+          <t>Compass Error. Compass direction is not the same with IMU</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>140</v>
+        <v>160</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Cannot track subject: Forward Obstacle Sensing not Responding</t>
+          <t>Compass Error. Compass disconnected</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>141</v>
+        <v>165</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Cannot track subject: Gimbal Tilt too Large</t>
+          <t>Compass Error. Compass error Solution: Move away from ground magnetic interference</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>142</v>
+        <v>162</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Cannot track subject: No image. Please retry</t>
+          <t>Compass Error. Compass interference. Please move the aircraft away from potential interference source or calibrate the compass</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>143</v>
+        <v>166</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Cannot track subject: Subject too Large. Move Away and retry</t>
+          <t>Compass Error. Exit P-GPS Mode</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>144</v>
+        <v>169</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Cannot track subject: Subject too Small. Get Closer and retry</t>
+          <t>Compass Error. Magnetic Filed Interference. Exit P-GPS Mode</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>145</v>
+        <v>169</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Capture Failed Cannot enter Pano mode</t>
+          <t>Compass Interference. Temp Max Altitude : 98ft</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>146</v>
+        <v>170</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Capture Failed Shooting interrupted</t>
+          <t>Compass Interference. Temp Max Altitude: nnn</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>147</v>
+        <v>171</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Capture Failed Stick movement detected. Panorama has stopped</t>
+          <t>Compass Redundancy Switch</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>148</v>
+        <v>172</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Capture Failed. Distance limit exceeded. Cannot shoot panorama</t>
+          <t>Compass Stuck. Restart Aircraft. Contact DJI Support if this persists.</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>149</v>
+        <v>119</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Capture Failed. Insufficient storage space. Cannot shoot panorama</t>
+          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft. The ground or walls may contain metal. Move away from sources of interference before attempting flight. 2. Calibrate Compass Before Takeoff</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>150</v>
+        <v>159</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Capture Failed. Shooting is currently not permitted</t>
+          <t>Compass data error. Please contact DJI Support</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>151</v>
+        <v>120</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Capture Failed. The aircraft is moving. Cannot shoot panorama</t>
+          <t>Compass direction is not the same with IMU</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>152</v>
+        <v>160</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Capture Failed. The gimbal is moving. Cannot shoot panorama</t>
+          <t>Compass error Solution: Move away from ground magnetic interference</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>153</v>
+        <v>162</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Check whether propellers are installed correctly. If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist. Contact DJI Support for assistance</t>
+          <t>Compass error, calibration required</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>154</v>
+        <v>163</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Check whether the propellers are attached to the correct motors based on their markings. Incorrect installation will cause the aircraft to roll over during takeoff</t>
+          <t>Compass error. Ensure there are no metal or magnetic objects near the aircraft and calibrate it before use</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>155</v>
+        <v>168</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Color display in Liveview is enhanced. Videos and photos will still be shot in D-Log mode</t>
+          <t>Compass initialization failed. Restart aircraft</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>156</v>
+        <v>90</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Color display in the Liveview has been enhanced. Videos and photos will still be shot in D-Log mode</t>
+          <t>Compass interference. Please move the aircraft away from potential interference source or calibrate the compass</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>156</v>
+        <v>166</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Command Failed</t>
+          <t>Correcting Landing Position</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>157</v>
+        <v>173</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Warning: Command Failed</t>
+          <t>Critical Low Battery</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>157</v>
+        <v>174</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Command Timeout</t>
+          <t>Critical low battery voltage</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>158</v>
+        <v>174</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft. The ground or walls may contain metal. Move away from sources of interference before attempting flight. 2. Calibrate Compass Before Takeoff</t>
+          <t>Critical low battery. Aircraft in Auto Power Off Protection. Forced landing in progress</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>159</v>
+        <v>175</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Fly with caution. Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft. The ground or walls may contain metal. Move away from sources of interference before</t>
+          <t>Critical low battery. Aircraft landing automatically</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>159</v>
+        <v>176</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Compass direction is not the same with IMU</t>
+          <t>Critical low battery. Aircraft returning to home</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>160</v>
+        <v>177</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Compass Error. Compass direction is not the same with IMU</t>
+          <t>Critical low battery. Recharge promptly</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>160</v>
+        <v>178</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Compass Error</t>
+          <t>Critical low battery. Return to home or land promptly</t>
         </is>
       </c>
       <c r="B221" t="n">
-        <v>161</v>
+        <v>179</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Compass error Solution: Move away from ground magnetic interference</t>
+          <t>Critical low battery. Unable to take off. Recharge promptly</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>162</v>
+        <v>180</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Compass Error. Compass error Solution: Move away from ground magnetic interference</t>
+          <t>Critically Low Power. Aircraft Landing</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>162</v>
+        <v>181</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Compass error, calibration required</t>
+          <t>Critically Low Power. Aircraft Landing. Throttle up to reduce the speed of descent and use sticks to avoid obstacles</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>163</v>
+        <v>182</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Compass Error. Compass data error. Please check the Compass installation and interference</t>
+          <t>Critically Low Voltage Warning. Aircraft will be forced to land</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>164</v>
+        <v>183</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Compass Error. Compass disconnected</t>
+          <t>Critically Low Voltage Warning. Land as soon as possible, otherwise the battery will be damaged</t>
         </is>
       </c>
       <c r="B226" t="n">
-        <v>165</v>
+        <v>184</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Compass Error. Compass Error. Compass disconnected</t>
+          <t>Critically Low Voltage. Aircraft will land</t>
         </is>
       </c>
       <c r="B227" t="n">
-        <v>165</v>
+        <v>185</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Compass Error. Compass interference. Please move the aircraft away from potential interference source or calibrate the compass</t>
+          <t>Critically low power. Aircraft is landing</t>
         </is>
       </c>
       <c r="B228" t="n">
-        <v>166</v>
+        <v>181</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Compass interference. Please move the aircraft away from potential interference source or calibrate the compass</t>
+          <t>CrystalSky is too hot. Cool down the monitor to prevent overheating</t>
         </is>
       </c>
       <c r="B229" t="n">
-        <v>166</v>
+        <v>186</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>Compass Error. Compass Redundancy Switch</t>
+          <t>Current RTH route will pass a No-Fly zone. Pay attention to the aircraft's position to avoid RTH failure.</t>
         </is>
       </c>
       <c r="B230" t="n">
-        <v>167</v>
+        <v>188</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>Compass error. Ensure there are no metal or magnetic objects near the aircraft and calibrate it before use</t>
+          <t>Current elevation above nnn. Fly with caution</t>
         </is>
       </c>
       <c r="B231" t="n">
-        <v>168</v>
+        <v>187</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>Compass Error. Exit P-GPS Mode</t>
+          <t>Data Recorder File Index is 12.</t>
         </is>
       </c>
       <c r="B232" t="n">
-        <v>169</v>
+        <v>189</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>Compass Error. Magnetic Filed Interference. Exit P-GPS Mode</t>
+          <t>Data Recorder File Index is 13.</t>
         </is>
       </c>
       <c r="B233" t="n">
-        <v>169</v>
+        <v>190</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Magnetic Filed Interference. Exit P-GPS Mode. Yaw Error.</t>
+          <t>Data Recorder File Index is 15.</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>169</v>
+        <v>191</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Compass Interference. Temp Max Altitude : 98ft</t>
+          <t>Data Recorder File Index is 17.</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>170</v>
+        <v>192</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Compass Interference. Temp Max Altitude: nnn</t>
+          <t>Data Recorder File Index is 18.</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>171</v>
+        <v>193</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>Compass Redundancy Switch</t>
+          <t>Data Recorder File Index is 19.</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>172</v>
+        <v>194</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>Correcting Landing Position</t>
+          <t>Data Recorder File Index is 2.</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>173</v>
+        <v>195</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Precision Landing. Correcting Landing Position.</t>
+          <t>Data Recorder File Index is 21.</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>173</v>
+        <v>196</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>Critical Low Battery</t>
+          <t>Data Recorder File Index is 29.</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>174</v>
+        <v>197</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>Critical low battery voltage</t>
+          <t>Data Recorder File Index is 3.</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>174</v>
+        <v>198</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>Critical low battery. Aircraft in Auto Power Off Protection. Forced landing in progress</t>
+          <t>Data Recorder File Index is 30.</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>175</v>
+        <v>197</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>Critical low battery. Aircraft landing automatically</t>
+          <t>Data Recorder File Index is 4.</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>176</v>
+        <v>199</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>Critical low battery. Aircraft returning to home</t>
+          <t>Data Recorder File Index is 45.</t>
         </is>
       </c>
       <c r="B244" t="n">
-        <v>177</v>
+        <v>200</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>Critical low battery. Recharge promptly</t>
+          <t>Data Recorder File Index is 46.</t>
         </is>
       </c>
       <c r="B245" t="n">
-        <v>178</v>
+        <v>201</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>Low battery. Recharge promptly</t>
+          <t>Data Recorder File Index is 5.</t>
         </is>
       </c>
       <c r="B246" t="n">
-        <v>178</v>
+        <v>202</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>Critical low battery. Return to home or land promptly</t>
+          <t>Data Recorder File Index is 57.</t>
         </is>
       </c>
       <c r="B247" t="n">
-        <v>179</v>
+        <v>203</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>Critical low battery. Unable to take off. Recharge promptly</t>
+          <t>Data Recorder File Index is 65.</t>
         </is>
       </c>
       <c r="B248" t="n">
-        <v>180</v>
+        <v>204</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Critically low power. Aircraft is landing</t>
+          <t>Data Recorder File Index is 7.</t>
         </is>
       </c>
       <c r="B249" t="n">
-        <v>181</v>
+        <v>205</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>Critically Low Power. Aircraft Landing</t>
+          <t>Data Recorder File Index is 8.</t>
         </is>
       </c>
       <c r="B250" t="n">
-        <v>181</v>
+        <v>206</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>Critically Low Power. Aircraft Landing. Throttle up to reduce the speed of descent and use sticks to avoid obstacles</t>
+          <t>Descending. Exited Visual Avoidance System</t>
         </is>
       </c>
       <c r="B251" t="n">
-        <v>182</v>
+        <v>207</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>Critically Low Voltage Warning. Aircraft will be forced to land</t>
+          <t>Detecting subject</t>
         </is>
       </c>
       <c r="B252" t="n">
-        <v>183</v>
+        <v>208</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>Critically Low Voltage Warning. Land as soon as possible, otherwise the battery will be damaged</t>
+          <t>Disable SD card read and write protection or change card</t>
         </is>
       </c>
       <c r="B253" t="n">
-        <v>184</v>
+        <v>209</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>Critically Low Voltage. Aircraft will land</t>
+          <t>Distance limit enabled. Fly safely</t>
         </is>
       </c>
       <c r="B254" t="n">
-        <v>185</v>
+        <v>210</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>CrystalSky is too hot. Cool down the monitor to prevent overheating</t>
+          <t>Downlink Lost.</t>
         </is>
       </c>
       <c r="B255" t="n">
-        <v>186</v>
+        <v>212</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>Current elevation above nnn. Fly with caution</t>
+          <t>Downlink Restored (after 0m 0.9s).</t>
         </is>
       </c>
       <c r="B256" t="n">
-        <v>187</v>
+        <v>213</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>Current RTH route will pass a No-Fly zone. Pay attention to the aircraft's position to avoid RTH failure.</t>
+          <t>Downlink Restored (after 0m 1.1s).</t>
         </is>
       </c>
       <c r="B257" t="n">
-        <v>188</v>
+        <v>213</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 12.</t>
+          <t>Downlink Restored (after 0m 1.2s).</t>
         </is>
       </c>
       <c r="B258" t="n">
-        <v>189</v>
+        <v>213</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 13.</t>
+          <t>Downlink Restored (after 0m 1.4s).</t>
         </is>
       </c>
       <c r="B259" t="n">
-        <v>190</v>
+        <v>213</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 15.</t>
+          <t>Downlink Restored (after 0m 1.5s).</t>
         </is>
       </c>
       <c r="B260" t="n">
-        <v>191</v>
+        <v>213</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 17.</t>
+          <t>Downlink Restored (after 0m 1.6s).</t>
         </is>
       </c>
       <c r="B261" t="n">
-        <v>192</v>
+        <v>213</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 18.</t>
+          <t>Downlink Restored (after 0m 1.7s).</t>
         </is>
       </c>
       <c r="B262" t="n">
-        <v>193</v>
+        <v>213</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 19.</t>
+          <t>Downlink Restored (after 0m 11.3s).</t>
         </is>
       </c>
       <c r="B263" t="n">
-        <v>194</v>
+        <v>213</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 2.</t>
+          <t>Downlink Restored (after 0m 11s).</t>
         </is>
       </c>
       <c r="B264" t="n">
-        <v>195</v>
+        <v>213</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 21.</t>
+          <t>Downlink Restored (after 0m 1s).</t>
         </is>
       </c>
       <c r="B265" t="n">
-        <v>196</v>
+        <v>213</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 29.</t>
+          <t>Downlink Restored (after 0m 2.2s).</t>
         </is>
       </c>
       <c r="B266" t="n">
-        <v>197</v>
+        <v>213</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 30.</t>
+          <t>Downlink Restored (after 0m 2.3s).</t>
         </is>
       </c>
       <c r="B267" t="n">
-        <v>197</v>
+        <v>213</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 3.</t>
+          <t>Downlink Restored (after 0m 2.9s).</t>
         </is>
       </c>
       <c r="B268" t="n">
-        <v>198</v>
+        <v>213</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 4.</t>
+          <t>Downlink Restored (after 0m 5.6s).</t>
         </is>
       </c>
       <c r="B269" t="n">
-        <v>199</v>
+        <v>213</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 45.</t>
+          <t>Downlink Restored (after 0m 5.8s).</t>
         </is>
       </c>
       <c r="B270" t="n">
-        <v>200</v>
+        <v>213</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 46.</t>
+          <t>Downlink data connection lost for nnn seconds</t>
         </is>
       </c>
       <c r="B271" t="n">
-        <v>201</v>
+        <v>211</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 5.</t>
+          <t>Downward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
         </is>
       </c>
       <c r="B272" t="n">
-        <v>202</v>
+        <v>87</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 57.</t>
+          <t>Downward altitude sensor data error. Please contact DJI Support for help</t>
         </is>
       </c>
       <c r="B273" t="n">
-        <v>203</v>
+        <v>120</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 65.</t>
+          <t>Downward ambient light too low. Obstacle avoidance unavailable. Fly with caution</t>
         </is>
       </c>
       <c r="B274" t="n">
-        <v>204</v>
+        <v>66</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 7.</t>
+          <t>Downward ambient light too low. Obstacle avoidance unavailable. Fly with caution. Backward ambient light too low. Backward obstacle avoidance unavailable. Only infrared sensors available. Fly with caution</t>
         </is>
       </c>
       <c r="B275" t="n">
-        <v>205</v>
+        <v>66</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 8.</t>
+          <t>Downward infrared sensor failure. Land as soon as possible</t>
         </is>
       </c>
       <c r="B276" t="n">
-        <v>206</v>
+        <v>214</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>Descending. Exited Visual Avoidance System</t>
+          <t>Downward sensor error. Aircraft unstable at low altitude. Please fly with caution</t>
         </is>
       </c>
       <c r="B277" t="n">
-        <v>207</v>
+        <v>215</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>Detecting subject</t>
+          <t>Downward vision sensor calibration error. Auto calibration in progress</t>
         </is>
       </c>
       <c r="B278" t="n">
-        <v>208</v>
+        <v>216</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>Disable SD card read and write protection or change card</t>
+          <t>Downward vision sensor error. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B279" t="n">
-        <v>209</v>
+        <v>120</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>Distance limit enabled. Fly safely</t>
+          <t>Drag a box around or tap a target on screen. Then tap Go.</t>
         </is>
       </c>
       <c r="B280" t="n">
-        <v>210</v>
+        <v>217</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>Downlink data connection lost for nnn seconds</t>
+          <t>Drone is Vibrating</t>
         </is>
       </c>
       <c r="B281" t="n">
-        <v>211</v>
+        <v>218</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>Downlink Lost.</t>
+          <t>During Smart Track, you can control lens zoom within a certain limit</t>
         </is>
       </c>
       <c r="B282" t="n">
-        <v>212</v>
+        <v>219</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 0.9s).</t>
+          <t>EMMC is full</t>
         </is>
       </c>
       <c r="B283" t="n">
-        <v>213</v>
+        <v>220</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.1s).</t>
+          <t>Ensure control sticks are centered during takeoff</t>
         </is>
       </c>
       <c r="B284" t="n">
-        <v>213</v>
+        <v>221</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.2s).</t>
+          <t>Entered Cruise Control mode. Press C1 or C2 to exit</t>
         </is>
       </c>
       <c r="B285" t="n">
-        <v>213</v>
+        <v>222</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.4s).</t>
+          <t>Error: Course angle control error. Please ensure the propellers are installed on the correct motors</t>
         </is>
       </c>
       <c r="B286" t="n">
-        <v>213</v>
+        <v>223</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.5s).</t>
+          <t>Excessive attitude angle detected, forward obstacle avoidance has stopped working</t>
         </is>
       </c>
       <c r="B287" t="n">
-        <v>213</v>
+        <v>224</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.6s).</t>
+          <t>Excessive gimbal vibration. Check whether gimbal can rotate freely</t>
         </is>
       </c>
       <c r="B288" t="n">
-        <v>213</v>
+        <v>225</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.7s).</t>
+          <t>Executing waypoint mission</t>
         </is>
       </c>
       <c r="B289" t="n">
-        <v>213</v>
+        <v>226</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 11.3s).</t>
+          <t>Exit Backward Forward Downward Upward Sensing system, Ambient Light is too weak</t>
         </is>
       </c>
       <c r="B290" t="n">
-        <v>213</v>
+        <v>227</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 11s).</t>
+          <t>Exited Cruise Control mode</t>
         </is>
       </c>
       <c r="B291" t="n">
-        <v>213</v>
+        <v>228</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1s).</t>
+          <t>Exited Hyperlapse mode</t>
         </is>
       </c>
       <c r="B292" t="n">
-        <v>213</v>
+        <v>229</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 2.2s).</t>
+          <t>Exited Visual Avoidance System.</t>
         </is>
       </c>
       <c r="B293" t="n">
-        <v>213</v>
+        <v>230</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 2.3s).</t>
+          <t>Exiting GPS mode: Unknown Error</t>
         </is>
       </c>
       <c r="B294" t="n">
-        <v>213</v>
+        <v>231</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 2.9s).</t>
+          <t>Extended flight distance detected. Always maintain visual line of sight unless otherwise authorized</t>
         </is>
       </c>
       <c r="B295" t="n">
-        <v>213</v>
+        <v>232</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 5.6s).</t>
+          <t>Extra payload detected. Flight performance will be affected. Fly with caution</t>
         </is>
       </c>
       <c r="B296" t="n">
-        <v>213</v>
+        <v>233</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 5.8s).</t>
+          <t>Extra payload detected. Max altitude and distance set. Fly with caution</t>
         </is>
       </c>
       <c r="B297" t="n">
-        <v>213</v>
+        <v>233</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>Downward infrared sensor failure. Land as soon as possible</t>
+          <t>Extra payload detected. Max altitude set to nnn and max distance set to nnn to ensure flight safety</t>
         </is>
       </c>
       <c r="B298" t="n">
-        <v>214</v>
+        <v>233</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>Downward sensor error. Aircraft unstable at low altitude. Please fly with caution</t>
+          <t>Extra payload detected. Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety</t>
         </is>
       </c>
       <c r="B299" t="n">
-        <v>215</v>
+        <v>234</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>Downward vision sensor calibration error. Auto calibration in progress</t>
+          <t>Extra payload detected. Return the aircraft to an area nearby the home point promptly to ensure flight safety</t>
         </is>
       </c>
       <c r="B300" t="n">
-        <v>216</v>
+        <v>234</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>Forward vision sensor calibration error. Auto calibration in progress</t>
+          <t>Failed to cancel Return to Home</t>
         </is>
       </c>
       <c r="B301" t="n">
-        <v>216</v>
+        <v>236</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>Drag a box around or tap a target on screen. Then tap Go.</t>
+          <t>Failed to cancel landing</t>
         </is>
       </c>
       <c r="B302" t="n">
-        <v>217</v>
+        <v>235</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>Drone is Vibrating</t>
+          <t>Failed to lower or pack up landing gear. Take care of your gimbal when landing</t>
         </is>
       </c>
       <c r="B303" t="n">
-        <v>218</v>
+        <v>237</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>During Smart Track, you can control lens zoom within a certain limit</t>
+          <t>Failed to take off. Check the USB connection with aircraft. Contact DJI Support if this error persists after restarting</t>
         </is>
       </c>
       <c r="B304" t="n">
-        <v>219</v>
+        <v>238</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>EMMC is full</t>
+          <t>File system error. Change SD card</t>
         </is>
       </c>
       <c r="B305" t="n">
-        <v>220</v>
+        <v>239</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>Ensure control sticks are centered during takeoff</t>
+          <t>Flight Mode Set to Attitude</t>
         </is>
       </c>
       <c r="B306" t="n">
-        <v>221</v>
+        <v>244</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>Entered Cruise Control mode. Press C1 or C2 to exit</t>
+          <t>Flight altitude exceeds nnn. Aircraft may be in violation of local laws and regulations. Check and make sure you have obtained proper authorization to fly in this airspace</t>
         </is>
       </c>
       <c r="B307" t="n">
-        <v>222</v>
+        <v>240</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>Error: Course angle control error. Please ensure the propellers are installed on the correct motors</t>
+          <t>Flight altitude exceeds nnn. May violate local policies and regulations. Ensure you have obtained proper airspace authorization</t>
         </is>
       </c>
       <c r="B308" t="n">
-        <v>223</v>
+        <v>240</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>Excessive attitude angle detected, forward obstacle avoidance has stopped working</t>
+          <t>Flight control mode error, cannot start recording QuickShot</t>
         </is>
       </c>
       <c r="B309" t="n">
-        <v>224</v>
+        <v>241</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>Excessive gimbal vibration. Check whether gimbal can rotate freely</t>
+          <t>Flight distance may exceed line-of-sight. Fly with caution</t>
         </is>
       </c>
       <c r="B310" t="n">
-        <v>225</v>
+        <v>242</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>Gimbal motor overloaded. Check whether gimbal can rotate freely</t>
+          <t>Flight height too low</t>
         </is>
       </c>
       <c r="B311" t="n">
-        <v>225</v>
+        <v>243</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>Executing waypoint mission</t>
+          <t>Fly with caution and ensure the aircraft remains within your line of sight.</t>
         </is>
       </c>
       <c r="B312" t="n">
-        <v>226</v>
+        <v>245</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>Exit Backward Forward Downward Upward Sensing system, Ambient Light is too weak</t>
+          <t>Fly with caution. Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft. The ground or walls may contain metal. Move away from sources of interference before</t>
         </is>
       </c>
       <c r="B313" t="n">
-        <v>227</v>
+        <v>159</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>Exited Cruise Control mode</t>
+          <t>Forward Obstacle Sensing is not functioning.</t>
         </is>
       </c>
       <c r="B314" t="n">
-        <v>228</v>
+        <v>86</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>Exited Hyperlapse mode</t>
+          <t>Forward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
         </is>
       </c>
       <c r="B315" t="n">
-        <v>229</v>
+        <v>87</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>Exited Visual Avoidance System.</t>
+          <t>Forward Obstacle Sensing not Responding</t>
         </is>
       </c>
       <c r="B316" t="n">
-        <v>230</v>
+        <v>246</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>Exiting GPS mode: Unknown Error</t>
+          <t>Forward Obstacle Sensing not Working.</t>
         </is>
       </c>
       <c r="B317" t="n">
-        <v>231</v>
+        <v>86</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>Extended flight distance detected. Always maintain visual line of sight unless otherwise authorized</t>
+          <t>Forward vision sensor calibration error. Auto calibration in progress</t>
         </is>
       </c>
       <c r="B318" t="n">
-        <v>232</v>
+        <v>216</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>Extra payload detected. Flight performance will be affected. Fly with caution</t>
+          <t>Forward vision sensor error. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B319" t="n">
-        <v>233</v>
+        <v>120</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>Extra payload detected. Max altitude and distance set. Fly with caution</t>
+          <t>GEO Zone Info: The target area is in an Altitude Zone. Flight altitude restricted to nnn</t>
         </is>
       </c>
       <c r="B320" t="n">
-        <v>233</v>
+        <v>247</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>Extra payload detected. Max altitude set to nnn and max distance set to nnn to ensure flight safety</t>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant). Fly with caution</t>
         </is>
       </c>
       <c r="B321" t="n">
-        <v>233</v>
+        <v>248</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>Propeller guard or extra payload detected. Flight performance will be affected. Fly with caution</t>
+          <t>GPS Position Mismatch.</t>
         </is>
       </c>
       <c r="B322" t="n">
-        <v>233</v>
+        <v>257</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>Extra payload detected. Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety</t>
+          <t>GPS module error. Restart aircraft</t>
         </is>
       </c>
       <c r="B323" t="n">
-        <v>234</v>
+        <v>90</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>Extra payload detected. Return the aircraft to an area nearby the home point promptly to ensure flight safety</t>
+          <t>GPS signal low. Aircraft unable to auto hover and takeoff restricted. Move to environment with adequate light. Unlocking takeoff restrictions not recommended</t>
         </is>
       </c>
       <c r="B324" t="n">
-        <v>234</v>
+        <v>258</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>Payload mode enabled. Return the aircraft to an area nearby the home point promptly to ensure flight safety</t>
+          <t>GPS signal weak. Fly with caution. Aircraft in Altitude Zone. Max altitude set to nnn</t>
         </is>
       </c>
       <c r="B325" t="n">
-        <v>234</v>
+        <v>259</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>Failed to cancel landing</t>
+          <t>GPS signal weak. Hovering unstable. Fly with caution</t>
         </is>
       </c>
       <c r="B326" t="n">
-        <v>235</v>
+        <v>260</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>Failed to cancel Return to Home</t>
+          <t>GPS signal weak. Positioning accuracy affected. Fly with caution</t>
         </is>
       </c>
       <c r="B327" t="n">
-        <v>236</v>
+        <v>260</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>Failed to lower or pack up landing gear. Take care of your gimbal when landing</t>
+          <t>Gimbal IMU data error. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B328" t="n">
-        <v>237</v>
+        <v>120</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>Failed to take off. Check the USB connection with aircraft. Contact DJI Support if this error persists after restarting</t>
+          <t>Gimbal Pitch Limit Reached.</t>
         </is>
       </c>
       <c r="B329" t="n">
-        <v>238</v>
+        <v>252</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>File system error. Change SD card</t>
+          <t>Gimbal Pitch Reached Movement Limit</t>
         </is>
       </c>
       <c r="B330" t="n">
-        <v>239</v>
+        <v>252</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>SD card malfunction. Change card</t>
+          <t>Gimbal Recenter</t>
         </is>
       </c>
       <c r="B331" t="n">
-        <v>239</v>
+        <v>253</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>Flight altitude exceeds nnn. Aircraft may be in violation of local laws and regulations. Check and make sure you have obtained proper authorization to fly in this airspace</t>
+          <t>Gimbal Roll Limit Reached.</t>
         </is>
       </c>
       <c r="B332" t="n">
-        <v>240</v>
+        <v>254</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>Flight altitude exceeds nnn. May violate local policies and regulations. Ensure you have obtained proper airspace authorization</t>
+          <t>Gimbal Yaw Limit Reached</t>
         </is>
       </c>
       <c r="B333" t="n">
-        <v>240</v>
+        <v>256</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>Flight control mode error, cannot start recording QuickShot</t>
+          <t>Gimbal calibrating</t>
         </is>
       </c>
       <c r="B334" t="n">
-        <v>241</v>
+        <v>249</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>Flight distance may exceed line-of-sight. Fly with caution</t>
+          <t>Gimbal calibration error. Restart aircraft or contact DJI Support if the issue persists</t>
         </is>
       </c>
       <c r="B335" t="n">
-        <v>242</v>
+        <v>119</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>Flight height too low</t>
+          <t>Gimbal motor overloaded. Check whether gimbal can rotate freely</t>
         </is>
       </c>
       <c r="B336" t="n">
-        <v>243</v>
+        <v>225</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>Flight Mode Set to Attitude</t>
+          <t>Gimbal nnn pan axis endpoint reached</t>
         </is>
       </c>
       <c r="B337" t="n">
-        <v>244</v>
+        <v>250</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>Fly with caution and ensure the aircraft remains within your line of sight.</t>
+          <t>Gimbal nnn pitch axis endpoint reached</t>
         </is>
       </c>
       <c r="B338" t="n">
-        <v>245</v>
+        <v>251</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution.</t>
+          <t>Gimbal nnn roll axis endpoint reached</t>
         </is>
       </c>
       <c r="B339" t="n">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution. Downlink Lost.</t>
+          <t>Gimbal stuck. Check whether gimbal lock is removed and ensure gimbal can rotate freely</t>
         </is>
       </c>
       <c r="B340" t="n">
-        <v>245</v>
+        <v>255</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution. High wind velocity. Fly with caution and land in a safe place ASAP.</t>
+          <t>Ground Plain. Safe to Land.</t>
         </is>
       </c>
       <c r="B341" t="n">
-        <v>245</v>
+        <v>261</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>High wind velocity. Fly with caution and land in a safe place ASAP.</t>
+          <t>Gyroscope initialization failed. Restart aircraft</t>
         </is>
       </c>
       <c r="B342" t="n">
-        <v>245</v>
+        <v>90</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>High wind velocity. Fly with caution.</t>
+          <t>High Wind Velocity: Fly with caution and ensure the aircraft remains within your line of sight</t>
         </is>
       </c>
       <c r="B343" t="n">
@@ -3868,17 +3868,17 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>High Wind Velocity: Fly with caution and ensure the aircraft remains within your line of sight</t>
+          <t>High altitude. Aircraft braking distance increased and flight time decreased. Fly with caution</t>
         </is>
       </c>
       <c r="B344" t="n">
-        <v>245</v>
+        <v>262</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>Large Wind Velocity. Fly with caution.</t>
+          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution.</t>
         </is>
       </c>
       <c r="B345" t="n">
@@ -3888,7 +3888,7 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>Strong wind. Fly with caution</t>
+          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution. Downlink Lost.</t>
         </is>
       </c>
       <c r="B346" t="n">
@@ -3898,1441 +3898,1441 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing not Responding</t>
+          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution. High wind velocity. Fly with caution and land in a safe place ASAP.</t>
         </is>
       </c>
       <c r="B347" t="n">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone. Flight altitude restricted to nnn</t>
+          <t>High wind velocity. Fly with caution and land in a safe place ASAP.</t>
         </is>
       </c>
       <c r="B348" t="n">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant). Fly with caution</t>
+          <t>High wind velocity. Fly with caution.</t>
         </is>
       </c>
       <c r="B349" t="n">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>Gimbal calibrating</t>
+          <t>High-altitude flight, aircraft braking distance is extended, flight time is shortened. Fly with caution</t>
         </is>
       </c>
       <c r="B350" t="n">
-        <v>249</v>
+        <v>262</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>Gimbal nnn pan axis endpoint reached</t>
+          <t>Home Point Recorded, Return-to-Home Altitude : 98FT</t>
         </is>
       </c>
       <c r="B351" t="n">
-        <v>250</v>
+        <v>263</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>Gimbal nnn roll axis endpoint reached</t>
+          <t>Home Point Recorded, Return-to-Home Altitude : 98FT.</t>
         </is>
       </c>
       <c r="B352" t="n">
-        <v>250</v>
+        <v>263</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>Gimbal nnn pitch axis endpoint reached</t>
+          <t>Home Point Recorded.</t>
         </is>
       </c>
       <c r="B353" t="n">
-        <v>251</v>
+        <v>264</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>Gimbal Pitch Limit Reached.</t>
+          <t>Home Point Recorded. RTH Altitude : 30m.</t>
         </is>
       </c>
       <c r="B354" t="n">
-        <v>252</v>
+        <v>265</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>Gimbal Pitch Reached Movement Limit</t>
+          <t>Home Point Recorded. Taking off.</t>
         </is>
       </c>
       <c r="B355" t="n">
-        <v>252</v>
+        <v>266</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>Gimbal Recenter</t>
+          <t>Home Point Updated.</t>
         </is>
       </c>
       <c r="B356" t="n">
-        <v>253</v>
+        <v>267</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>Gimbal Roll Limit Reached.</t>
+          <t>Home Point recorded. Return-to-Home Altitude : 98FT</t>
         </is>
       </c>
       <c r="B357" t="n">
-        <v>254</v>
+        <v>263</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>Gimbal stuck. Check whether gimbal lock is removed and ensure gimbal can rotate freely</t>
+          <t>Home Point recorded. Return-to-Home Altitude : 98FT.</t>
         </is>
       </c>
       <c r="B358" t="n">
-        <v>255</v>
+        <v>263</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>Gimbal Yaw Limit Reached</t>
+          <t>Home Point updated. RTH altitude adjusted to nnn</t>
         </is>
       </c>
       <c r="B359" t="n">
-        <v>256</v>
+        <v>268</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>GPS Position Mismatch.</t>
+          <t>IMU attitude restricted. Ensure aircraft is level</t>
         </is>
       </c>
       <c r="B360" t="n">
-        <v>257</v>
+        <v>271</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>GPS signal low. Aircraft unable to auto hover and takeoff restricted. Move to environment with adequate light. Unlocking takeoff restrictions not recommended</t>
+          <t>IMU calibration required. Calibrate IMU</t>
         </is>
       </c>
       <c r="B361" t="n">
-        <v>258</v>
+        <v>272</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>GPS signal weak. Fly with caution. Aircraft in Altitude Zone. Max altitude set to nnn</t>
+          <t>IMU not calibrated. Calibrate IMU</t>
         </is>
       </c>
       <c r="B362" t="n">
-        <v>259</v>
+        <v>273</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>GPS signal weak. Hovering unstable. Fly with caution</t>
+          <t>IMU warming up. Wait before taking off</t>
         </is>
       </c>
       <c r="B363" t="n">
-        <v>260</v>
+        <v>274</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>GPS signal weak. Positioning accuracy affected. Fly with caution</t>
+          <t>Image Transmission Recovered. Aircraft is returning home.</t>
         </is>
       </c>
       <c r="B364" t="n">
-        <v>260</v>
+        <v>10</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>Weak GPS signal. Aircraft is in Attitude mode and hovering may be unstable. Fly with caution.</t>
+          <t>Image transmission signal lost</t>
         </is>
       </c>
       <c r="B365" t="n">
-        <v>260</v>
+        <v>269</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>Weak GPS signal. Positioning accuracy may be compromised. Please fly with caution</t>
+          <t>Impact detected. Aircraft stopped. Restart aircraft</t>
         </is>
       </c>
       <c r="B366" t="n">
-        <v>260</v>
+        <v>270</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>Ground Plain. Safe to Land.</t>
+          <t>Impact detected. Restart aircraft</t>
         </is>
       </c>
       <c r="B367" t="n">
-        <v>261</v>
+        <v>270</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>High altitude. Aircraft braking distance increased and flight time decreased. Fly with caution</t>
+          <t>In Flight.</t>
         </is>
       </c>
       <c r="B368" t="n">
-        <v>262</v>
+        <v>275</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>High-altitude flight, aircraft braking distance is extended, flight time is shortened. Fly with caution</t>
+          <t>Incompatible firmware version. Go to Profile &gt; Settings to update firmware</t>
         </is>
       </c>
       <c r="B369" t="n">
-        <v>262</v>
+        <v>276</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>Home Point Recorded, Return-to-Home Altitude : 98FT</t>
+          <t>Insufficient SD card space. Change card or delete files</t>
         </is>
       </c>
       <c r="B370" t="n">
-        <v>263</v>
+        <v>277</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>Home Point Recorded, Return-to-Home Altitude : 98FT.</t>
+          <t>Intelligent Flight Modes have not been enabled. Enable this option in Main Controller Settings if needed.</t>
         </is>
       </c>
       <c r="B371" t="n">
-        <v>263</v>
+        <v>278</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>Home Point recorded. Return-to-Home Altitude : 98FT</t>
+          <t>Landing Canceled.</t>
         </is>
       </c>
       <c r="B372" t="n">
-        <v>263</v>
+        <v>279</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>Home Point recorded. Return-to-Home Altitude : 98FT.</t>
+          <t>Landing Gear Lowered.</t>
         </is>
       </c>
       <c r="B373" t="n">
-        <v>263</v>
+        <v>281</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>Return-to-Home Altitude : 98FT</t>
+          <t>Landing Gear Lowering.</t>
         </is>
       </c>
       <c r="B374" t="n">
-        <v>263</v>
+        <v>281</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>Return-to-Home Altitude : 98FT.</t>
+          <t>Landing Gear Paused.</t>
         </is>
       </c>
       <c r="B375" t="n">
-        <v>263</v>
+        <v>283</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>Home Point Recorded.</t>
+          <t>Landing Gear Raised.</t>
         </is>
       </c>
       <c r="B376" t="n">
-        <v>264</v>
+        <v>284</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>Home Point Recorded. RTH Altitude : 30m.</t>
+          <t>Landing Gear Raising.</t>
         </is>
       </c>
       <c r="B377" t="n">
-        <v>265</v>
+        <v>284</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>Home Point Recorded. Taking off.</t>
+          <t>Landing Gear Raising. Home Point Recorded</t>
         </is>
       </c>
       <c r="B378" t="n">
-        <v>266</v>
+        <v>285</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>Home Point Updated.</t>
+          <t>Landing Protection Activated. Aircraft will decelerate during landing.</t>
         </is>
       </c>
       <c r="B379" t="n">
-        <v>267</v>
+        <v>286</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>Home Point updated. RTH altitude adjusted to nnn</t>
+          <t>Landing gear function restored</t>
         </is>
       </c>
       <c r="B380" t="n">
-        <v>268</v>
+        <v>280</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>Image transmission signal lost</t>
+          <t>Landing gear lowered. Obstacle Avoidance Disabled.</t>
         </is>
       </c>
       <c r="B381" t="n">
-        <v>269</v>
+        <v>282</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>Impact detected. Aircraft stopped. Restart aircraft</t>
+          <t>Landing gear lowered. Obstacle Avoidance has been disabled.</t>
         </is>
       </c>
       <c r="B382" t="n">
-        <v>270</v>
+        <v>282</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>Impact detected. Restart aircraft</t>
+          <t>Landing.</t>
         </is>
       </c>
       <c r="B383" t="n">
-        <v>270</v>
+        <v>287</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>IMU attitude restricted. Ensure aircraft is level</t>
+          <t>Large Wind Velocity.</t>
         </is>
       </c>
       <c r="B384" t="n">
-        <v>271</v>
+        <v>288</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>IMU calibration required. Calibrate IMU</t>
+          <t>Large Wind Velocity. Fly with caution.</t>
         </is>
       </c>
       <c r="B385" t="n">
-        <v>272</v>
+        <v>245</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>IMU not calibrated. Calibrate IMU</t>
+          <t>Lens not connected</t>
         </is>
       </c>
       <c r="B386" t="n">
-        <v>273</v>
+        <v>289</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>IMU warming up. Wait before taking off</t>
+          <t>Lighting environment too dark. Vision System unavailable. Fly with caution</t>
         </is>
       </c>
       <c r="B387" t="n">
-        <v>274</v>
+        <v>66</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>In Flight.</t>
+          <t>Lighting environment too dark. Visual positioning inaccurate. Fly with caution</t>
         </is>
       </c>
       <c r="B388" t="n">
-        <v>275</v>
+        <v>66</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>Incompatible firmware version. Go to Profile &gt; Settings to update firmware</t>
+          <t>Live stream video frame rate less than 9Hz. Fly with caution</t>
         </is>
       </c>
       <c r="B389" t="n">
-        <v>276</v>
+        <v>290</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>Insufficient SD card space. Change card or delete files</t>
+          <t>Loading database failed. Geo-awareness function degraded</t>
         </is>
       </c>
       <c r="B390" t="n">
-        <v>277</v>
+        <v>291</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>Intelligent Flight Modes have not been enabled. Enable this option in Main Controller Settings if needed.</t>
+          <t>Locating Landing Point</t>
         </is>
       </c>
       <c r="B391" t="n">
-        <v>278</v>
+        <v>292</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>Landing Canceled.</t>
+          <t>Low Power. Aircraft is returning to the Home Point.</t>
         </is>
       </c>
       <c r="B392" t="n">
-        <v>279</v>
+        <v>295</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>Landing gear function restored</t>
+          <t>Low Power. Returning home.</t>
         </is>
       </c>
       <c r="B393" t="n">
-        <v>280</v>
+        <v>296</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>Landing Gear Lowered.</t>
+          <t>Low battery voltage. Fly with caution</t>
         </is>
       </c>
       <c r="B394" t="n">
-        <v>281</v>
+        <v>105</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>Landing Gear Lowering.</t>
+          <t>Low battery. Recharge promptly</t>
         </is>
       </c>
       <c r="B395" t="n">
-        <v>281</v>
+        <v>178</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>Landing gear lowered. Obstacle Avoidance Disabled.</t>
+          <t>Low battery. Return to home promptly</t>
         </is>
       </c>
       <c r="B396" t="n">
-        <v>282</v>
+        <v>293</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>Landing gear lowered. Obstacle Avoidance has been disabled.</t>
+          <t>Low power, please replace the battery</t>
         </is>
       </c>
       <c r="B397" t="n">
-        <v>282</v>
+        <v>294</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance Disabled. Landing gear lowered. Obstacle Avoidance Disabled.</t>
+          <t>Magnetic Filed Interference. Exit P-GPS Mode</t>
         </is>
       </c>
       <c r="B398" t="n">
-        <v>282</v>
+        <v>297</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance disabled. Landing gear lowered. Obstacle Avoidance has been disabled.</t>
+          <t>Magnetic Filed Interference. Exit P-GPS Mode. Yaw Error.</t>
         </is>
       </c>
       <c r="B399" t="n">
-        <v>282</v>
+        <v>169</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>Landing Gear Paused.</t>
+          <t>Manned aircraft approaching. Fly at a safe altitude</t>
         </is>
       </c>
       <c r="B400" t="n">
-        <v>283</v>
+        <v>298</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>Landing Gear Raised.</t>
+          <t>Manned aircraft detected nearby. Fly with caution</t>
         </is>
       </c>
       <c r="B401" t="n">
-        <v>284</v>
+        <v>1</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>Landing Gear Raising.</t>
+          <t>Manned aircraft too close. Fly at a safe altitude</t>
         </is>
       </c>
       <c r="B402" t="n">
-        <v>284</v>
+        <v>298</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>Landing Gear Raising. Home Point Recorded</t>
+          <t>Max Altitude Approached. Wait for the GPS satellite signal recovery before ascend</t>
         </is>
       </c>
       <c r="B403" t="n">
-        <v>285</v>
+        <v>299</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>Landing Protection Activated. Aircraft will decelerate during landing.</t>
+          <t>Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
         </is>
       </c>
       <c r="B404" t="n">
-        <v>286</v>
+        <v>301</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>Landing.</t>
+          <t>Max Flight Distance Reached. Adjust in Main Controller Settings if necessary.</t>
         </is>
       </c>
       <c r="B405" t="n">
-        <v>287</v>
+        <v>301</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>Large Wind Velocity.</t>
+          <t xml:space="preserve">Max altitude reached (Altitude limit: nnn) </t>
         </is>
       </c>
       <c r="B406" t="n">
-        <v>288</v>
+        <v>300</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>Lens not connected</t>
+          <t>Maximum Flight Altitude Reached.</t>
         </is>
       </c>
       <c r="B407" t="n">
-        <v>289</v>
+        <v>302</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>Live stream video frame rate less than 9Hz. Fly with caution</t>
+          <t>Maximum Flight Altitude Reached. Adjust altitude in MC Settings if required.</t>
         </is>
       </c>
       <c r="B408" t="n">
-        <v>290</v>
+        <v>303</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>Loading database failed. Geo-awareness function degraded</t>
+          <t>Maximum Flight Distance Reached. Adjust distance in MC Settings if required.</t>
         </is>
       </c>
       <c r="B409" t="n">
-        <v>291</v>
+        <v>303</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>Locating Landing Point</t>
+          <t>Maximum flight distance reached. Adjust the distance in MC Settings if required.</t>
         </is>
       </c>
       <c r="B410" t="n">
-        <v>292</v>
+        <v>303</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>Precision Landing. Locating Landing Point</t>
+          <t>Min Waypoint Distance: nnn</t>
         </is>
       </c>
       <c r="B411" t="n">
-        <v>292</v>
+        <v>304</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>Low battery. Return to home promptly</t>
+          <t>Mobile device CPU fully loaded. Related performance will be affected.</t>
         </is>
       </c>
       <c r="B412" t="n">
-        <v>293</v>
+        <v>305</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>Low power, please replace the battery</t>
+          <t>Mobile device version too old to support HD image transmission and the image transmission mode has been switch to normal mode.</t>
         </is>
       </c>
       <c r="B413" t="n">
-        <v>294</v>
+        <v>306</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>Low Power. Aircraft is returning to the Home Point.</t>
+          <t>Motor Obstructed. Propulsion output is limited to ensure the health of the battery</t>
         </is>
       </c>
       <c r="B414" t="n">
-        <v>295</v>
+        <v>314</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>Low Power. Returning home.</t>
+          <t>Motor error. Check propellers and fly with caution</t>
         </is>
       </c>
       <c r="B415" t="n">
-        <v>296</v>
+        <v>307</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>Magnetic Filed Interference. Exit P-GPS Mode</t>
+          <t>Motor idle. Check whether propellers are installed</t>
         </is>
       </c>
       <c r="B416" t="n">
-        <v>297</v>
+        <v>308</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>Manned aircraft approaching. Fly at a safe altitude</t>
+          <t>Motor is Blocked</t>
         </is>
       </c>
       <c r="B417" t="n">
-        <v>298</v>
+        <v>309</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>Manned aircraft too close. Fly at a safe altitude</t>
+          <t>Motor is Blocked. Motor stuck. Check for objects blocking motor or contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B418" t="n">
-        <v>298</v>
+        <v>310</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>Max Altitude Approached. Wait for the GPS satellite signal recovery before ascend</t>
+          <t>Motor is idling (lost or missing propeller)</t>
         </is>
       </c>
       <c r="B419" t="n">
-        <v>299</v>
+        <v>311</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t xml:space="preserve">Max altitude reached (Altitude limit: nnn) </t>
+          <t>Motor nnn propeller detached or installed incorrectly</t>
         </is>
       </c>
       <c r="B420" t="n">
-        <v>300</v>
+        <v>312</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
+          <t>Motor nnn stalled. Land aircraft immediately</t>
         </is>
       </c>
       <c r="B421" t="n">
-        <v>301</v>
+        <v>313</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>Max Flight Distance Reached. Adjust in Main Controller Settings if necessary.</t>
+          <t>Motor or propeller error. Check the motors and propellers.</t>
         </is>
       </c>
       <c r="B422" t="n">
-        <v>301</v>
+        <v>315</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>Warning: Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
+          <t>Motor speed error. Land or return to home promptly. After powering off the aircraft, replace the propeller on the beeping ESC. If the issue persists, contact DJI Support</t>
         </is>
       </c>
       <c r="B423" t="n">
-        <v>301</v>
+        <v>316</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>Maximum Flight Altitude Reached.</t>
+          <t xml:space="preserve">Motor stuck. Check for objects blocking motor or contact DJI Support for assistance </t>
         </is>
       </c>
       <c r="B424" t="n">
-        <v>302</v>
+        <v>310</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>Maximum Flight Altitude Reached. Adjust altitude in MC Settings if required.</t>
+          <t xml:space="preserve">Motor unable to rotate. Check for objects blocking motor or contact DJI Support for assistance </t>
         </is>
       </c>
       <c r="B425" t="n">
-        <v>303</v>
+        <v>310</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>Maximum Flight Distance Reached. Adjust distance in MC Settings if required.</t>
+          <t>Motor unable to rotate. Check motor</t>
         </is>
       </c>
       <c r="B426" t="n">
-        <v>303</v>
+        <v>317</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>Maximum flight distance reached. Adjust the distance in MC Settings if required.</t>
+          <t>Motors Started.</t>
         </is>
       </c>
       <c r="B427" t="n">
-        <v>303</v>
+        <v>318</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>Min Waypoint Distance: nnn</t>
+          <t>Navigation system error. Restart aircraft</t>
         </is>
       </c>
       <c r="B428" t="n">
-        <v>304</v>
+        <v>90</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>Mobile device CPU fully loaded. Related performance will be affected.</t>
+          <t>No GPS signal. Aircraft unable to hover. Fly with caution</t>
         </is>
       </c>
       <c r="B429" t="n">
-        <v>305</v>
+        <v>319</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>Mobile device version too old to support HD image transmission and the image transmission mode has been switch to normal mode.</t>
+          <t>No GPS signal. Unable to hover. Fly with caution</t>
         </is>
       </c>
       <c r="B430" t="n">
-        <v>306</v>
+        <v>319</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>Motor error. Check propellers and fly with caution</t>
+          <t>No GPS signal. Unable to take off. Move to an open area or exit flight tutorial</t>
         </is>
       </c>
       <c r="B431" t="n">
-        <v>307</v>
+        <v>320</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>Motor idle. Check whether propellers are installed</t>
+          <t>No GPS. Return to Home failed. Return the aircraft to home manually</t>
         </is>
       </c>
       <c r="B432" t="n">
-        <v>308</v>
+        <v>321</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>Motor is Blocked</t>
+          <t>No SD card. Insert card</t>
         </is>
       </c>
       <c r="B433" t="n">
-        <v>309</v>
+        <v>322</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>Motor is Blocked. Motor stuck. Check for objects blocking motor or contact DJI Support for assistance</t>
+          <t>Not Allowed to change Aircraft Mode. If needed</t>
         </is>
       </c>
       <c r="B434" t="n">
-        <v>310</v>
+        <v>323</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t xml:space="preserve">Motor stuck. Check for objects blocking motor or contact DJI Support for assistance </t>
+          <t>Not Allowed to change Aircraft Mode. If needed, enable it in Main Controller Settings</t>
         </is>
       </c>
       <c r="B435" t="n">
-        <v>310</v>
+        <v>324</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t xml:space="preserve">Motor unable to rotate. Check for objects blocking motor or contact DJI Support for assistance </t>
+          <t>Not Enough Force/ESC Error</t>
         </is>
       </c>
       <c r="B436" t="n">
-        <v>310</v>
+        <v>325</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>Motor is idling (lost or missing propeller)</t>
+          <t>Object too close to laser rangefinder</t>
         </is>
       </c>
       <c r="B437" t="n">
-        <v>311</v>
+        <v>326</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>Motor nnn propeller detached or installed incorrectly</t>
+          <t>Object too far for laser rangefinder</t>
         </is>
       </c>
       <c r="B438" t="n">
-        <v>312</v>
+        <v>327</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>Motor nnn stalled. Land aircraft immediately</t>
+          <t>Obstacle Avoidance Disabled.</t>
         </is>
       </c>
       <c r="B439" t="n">
-        <v>313</v>
+        <v>328</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>Motor Obstructed. Propulsion output is limited to ensure the health of the battery</t>
+          <t>Obstacle Avoidance Disabled. Landing gear lowered. Obstacle Avoidance Disabled.</t>
         </is>
       </c>
       <c r="B440" t="n">
-        <v>314</v>
+        <v>282</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>Propulsion output has been limited to ensure battery health.</t>
+          <t>Obstacle Avoidance disabled. Fly with caution</t>
         </is>
       </c>
       <c r="B441" t="n">
-        <v>314</v>
+        <v>329</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>Motor or propeller error. Check the motors and propellers.</t>
+          <t>Obstacle Avoidance disabled. Landing gear lowered. Obstacle Avoidance has been disabled.</t>
         </is>
       </c>
       <c r="B442" t="n">
-        <v>315</v>
+        <v>282</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>Motor speed error. Land or return to home promptly. After powering off the aircraft, replace the propeller on the beeping ESC. If the issue persists, contact DJI Support</t>
+          <t>Obstacle Avoidance will be disabled in landing.</t>
         </is>
       </c>
       <c r="B443" t="n">
-        <v>316</v>
+        <v>330</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>Motor unable to rotate. Check motor</t>
+          <t>Obstacle Avoided. Revise Flight Route</t>
         </is>
       </c>
       <c r="B444" t="n">
-        <v>317</v>
+        <v>331</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>Motors Started.</t>
+          <t>Obstacle Sensing will be disabled when aircraft is landing. Fly with caution.</t>
         </is>
       </c>
       <c r="B445" t="n">
-        <v>318</v>
+        <v>333</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>No GPS signal. Aircraft unable to hover. Fly with caution</t>
+          <t>Obstacle sensing not available at night. Adjust RTH altitude to above tallest surrounding building before flying</t>
         </is>
       </c>
       <c r="B446" t="n">
-        <v>319</v>
+        <v>332</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>No GPS signal. Unable to hover. Fly with caution</t>
+          <t>PalmControl in Process</t>
         </is>
       </c>
       <c r="B447" t="n">
-        <v>319</v>
+        <v>334</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>No GPS signal. Unable to take off. Move to an open area or exit flight tutorial</t>
+          <t>Pano shooting completed. The sky part is filled automatically</t>
         </is>
       </c>
       <c r="B448" t="n">
-        <v>320</v>
+        <v>335</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>No GPS. Return to Home failed. Return the aircraft to home manually</t>
+          <t>Pano successful</t>
         </is>
       </c>
       <c r="B449" t="n">
-        <v>321</v>
+        <v>336</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>No SD card. Insert card</t>
+          <t>Panorama Captured Successfully</t>
         </is>
       </c>
       <c r="B450" t="n">
-        <v>322</v>
+        <v>337</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>Not Allowed to change Aircraft Mode. If needed</t>
+          <t>Payload mode enabled. Max altitude and distance set. Fly with caution</t>
         </is>
       </c>
       <c r="B451" t="n">
-        <v>323</v>
+        <v>338</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>Not Allowed to change Aircraft Mode. If needed, enable it in Main Controller Settings</t>
+          <t>Payload mode enabled. Max altitude set to nnn and max distance set to nnn to ensure flight safety</t>
         </is>
       </c>
       <c r="B452" t="n">
-        <v>324</v>
+        <v>339</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>Not Enough Force/ESC Error</t>
+          <t>Payload mode enabled. Max altitude set to nnn and max distance set to nnn. Fly in a wind-free environment to ensure flight safety</t>
         </is>
       </c>
       <c r="B453" t="n">
-        <v>325</v>
+        <v>340</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>Object too close to laser rangefinder</t>
+          <t>Payload mode enabled. Return the aircraft to an area nearby the home point promptly to ensure flight safety</t>
         </is>
       </c>
       <c r="B454" t="n">
-        <v>326</v>
+        <v>234</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>Object too far for laser rangefinder</t>
+          <t>Precision Landing</t>
         </is>
       </c>
       <c r="B455" t="n">
-        <v>327</v>
+        <v>341</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance Disabled.</t>
+          <t>Precision Landing. Correcting Landing Position.</t>
         </is>
       </c>
       <c r="B456" t="n">
-        <v>328</v>
+        <v>173</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance disabled. Fly with caution</t>
+          <t>Precision Landing. Locating Landing Point</t>
         </is>
       </c>
       <c r="B457" t="n">
-        <v>329</v>
+        <v>292</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance will be disabled in landing.</t>
+          <t>Precision Landing. Rectifying aircraft position.</t>
         </is>
       </c>
       <c r="B458" t="n">
-        <v>330</v>
+        <v>342</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>Obstacle Avoided. Revise Flight Route</t>
+          <t>Propeller Fell Off</t>
         </is>
       </c>
       <c r="B459" t="n">
-        <v>331</v>
+        <v>343</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>Obstacle sensing not available at night. Adjust RTH altitude to above tallest surrounding building before flying</t>
+          <t>Propeller Fell Off. Motor idle. Check whether propellers are installed</t>
         </is>
       </c>
       <c r="B460" t="n">
-        <v>332</v>
+        <v>344</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>Obstacle Sensing will be disabled when aircraft is landing. Fly with caution.</t>
+          <t>Propeller Guard Mounted Propeller Guard mounted. Forward Obstacle Sensing will be automatically switched off</t>
         </is>
       </c>
       <c r="B461" t="n">
-        <v>333</v>
+        <v>345</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>PalmControl in Process</t>
+          <t>Propeller guard or extra payload detected. Flight performance will be affected. Fly with caution</t>
         </is>
       </c>
       <c r="B462" t="n">
-        <v>334</v>
+        <v>233</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>Pano shooting completed. The sky part is filled automatically</t>
+          <t>Propeller rotating too fast. Wind resistance affected. Return to home and land promptly. Check whether propeller on beeping ESC is warped or damaged</t>
         </is>
       </c>
       <c r="B463" t="n">
-        <v>335</v>
+        <v>346</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>Pano successful</t>
+          <t>Propellers not installed</t>
         </is>
       </c>
       <c r="B464" t="n">
-        <v>336</v>
+        <v>347</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>Panorama Captured Successfully</t>
+          <t>Propulsion output has been limited to ensure battery health.</t>
         </is>
       </c>
       <c r="B465" t="n">
-        <v>337</v>
+        <v>314</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>Payload mode enabled. Max altitude and distance set. Fly with caution</t>
+          <t>QuickShot has ended</t>
         </is>
       </c>
       <c r="B466" t="n">
-        <v>338</v>
+        <v>348</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>Payload mode enabled. Max altitude set to nnn and max distance set to nnn to ensure flight safety</t>
+          <t>RTH : Ascending to RTH altitude.</t>
         </is>
       </c>
       <c r="B467" t="n">
-        <v>339</v>
+        <v>366</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>Payload mode enabled. Max altitude set to nnn and max distance set to nnn. Fly in a wind-free environment to ensure flight safety</t>
+          <t>RTH : Cruise.</t>
         </is>
       </c>
       <c r="B468" t="n">
-        <v>340</v>
+        <v>367</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>Precision Landing</t>
+          <t>RTH : Heading alignment.</t>
         </is>
       </c>
       <c r="B469" t="n">
-        <v>341</v>
+        <v>368</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>Precision Landing. Rectifying aircraft position.</t>
+          <t>RTH : Preascending.</t>
         </is>
       </c>
       <c r="B470" t="n">
-        <v>342</v>
+        <v>369</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>Propeller Fell Off</t>
+          <t>RTH Altitude : 65FT.</t>
         </is>
       </c>
       <c r="B471" t="n">
-        <v>343</v>
+        <v>370</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>Propeller Fell Off. Motor idle. Check whether propellers are installed</t>
+          <t>RTH Altitude : 98FT.</t>
         </is>
       </c>
       <c r="B472" t="n">
-        <v>344</v>
+        <v>371</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>Propeller Guard Mounted Propeller Guard mounted. Forward Obstacle Sensing will be automatically switched off</t>
+          <t>RTH Altitude : 98FT. Data Recorder File Index is 1.</t>
         </is>
       </c>
       <c r="B473" t="n">
-        <v>345</v>
+        <v>372</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>Propeller rotating too fast. Wind resistance affected. Return to home and land promptly. Check whether propeller on beeping ESC is warped or damaged</t>
+          <t>RTH altitude adjusted to nnn</t>
         </is>
       </c>
       <c r="B474" t="n">
-        <v>346</v>
+        <v>373</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>Propellers not installed</t>
+          <t>RTK Base Station Data Not Received</t>
         </is>
       </c>
       <c r="B475" t="n">
-        <v>347</v>
+        <v>374</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>QuickShot has ended</t>
+          <t>RTK Base Station Data Not Received. Please make sure base station antenna is connected to the correct port</t>
         </is>
       </c>
       <c r="B476" t="n">
-        <v>348</v>
+        <v>375</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>Reaching maximum altitude...</t>
+          <t>RTK signal weak. Move to an open area for takeoff or turn off RTK</t>
         </is>
       </c>
       <c r="B477" t="n">
-        <v>349</v>
+        <v>376</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>Recenter Gimbal Pan</t>
+          <t>Reaching maximum altitude...</t>
         </is>
       </c>
       <c r="B478" t="n">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>Recharge promptly</t>
+          <t>Recenter Gimbal Pan</t>
         </is>
       </c>
       <c r="B479" t="n">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>Rectifying aircraft position</t>
+          <t>Recharge promptly</t>
         </is>
       </c>
       <c r="B480" t="n">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>Remote controller assisted takeoff initiated.</t>
+          <t>Rectifying aircraft position</t>
         </is>
       </c>
       <c r="B481" t="n">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>Remote controller battery level low. Recharge promptly</t>
+          <t>Remote Controller Right Dial Locked. Lightly press it to adjust.</t>
         </is>
       </c>
       <c r="B482" t="n">
-        <v>354</v>
+        <v>357</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>Remote controller disconnected from aircraft</t>
+          <t>Remote ID error. Connect to network to obtain mobile device location. Flying without broadcasting required remote ID messages may violate local regulations</t>
         </is>
       </c>
       <c r="B483" t="n">
-        <v>355</v>
+        <v>360</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>Remote controller in high interference environment. Manually adjust flight route or return to home</t>
+          <t>Remote ID functionality normal</t>
         </is>
       </c>
       <c r="B484" t="n">
-        <v>356</v>
+        <v>361</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>Remote Controller Right Dial Locked. Lightly press it to adjust.</t>
+          <t>Remote controller assisted takeoff initiated.</t>
         </is>
       </c>
       <c r="B485" t="n">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>Right Dial Locked. Lightly press to adjust.</t>
+          <t>Remote controller battery level low. Recharge promptly</t>
         </is>
       </c>
       <c r="B486" t="n">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>Remote controller signal lost</t>
+          <t>Remote controller disconnected from aircraft</t>
         </is>
       </c>
       <c r="B487" t="n">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>Remote controller signal weak. Adjust remote controller antennas</t>
+          <t>Remote controller in high interference environment. Manually adjust flight route or return to home</t>
         </is>
       </c>
       <c r="B488" t="n">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>Remote ID error. Connect to network to obtain mobile device location. Flying without broadcasting required remote ID messages may violate local regulations</t>
+          <t>Remote controller signal lost</t>
         </is>
       </c>
       <c r="B489" t="n">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>Remote ID functionality normal</t>
+          <t>Remote controller signal weak. Adjust remote controller antennas</t>
         </is>
       </c>
       <c r="B490" t="n">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="491">
@@ -5358,801 +5358,801 @@
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>Returning to the Home Point</t>
+          <t>Return-to-Home Altitude : 65FT</t>
         </is>
       </c>
       <c r="B493" t="n">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>Return-to-Home Altitude : 65FT</t>
+          <t>Return-to-Home Altitude : 98FT</t>
         </is>
       </c>
       <c r="B494" t="n">
-        <v>365</v>
+        <v>263</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>RTH : Ascending to RTH altitude.</t>
+          <t>Return-to-Home Altitude : 98FT.</t>
         </is>
       </c>
       <c r="B495" t="n">
-        <v>366</v>
+        <v>263</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>RTH : Cruise.</t>
+          <t>Returning to the Home Point</t>
         </is>
       </c>
       <c r="B496" t="n">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>RTH : Heading alignment.</t>
+          <t>Right Dial Locked. Lightly press to adjust.</t>
         </is>
       </c>
       <c r="B497" t="n">
-        <v>368</v>
+        <v>357</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>RTH : Preascending.</t>
+          <t>Running Flight Simulator. Restart aircraft to take off</t>
         </is>
       </c>
       <c r="B498" t="n">
-        <v>369</v>
+        <v>377</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>RTH Altitude : 65FT.</t>
+          <t>SD card full. Change card or delete files</t>
         </is>
       </c>
       <c r="B499" t="n">
-        <v>370</v>
+        <v>379</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>RTH Altitude : 98FT.</t>
+          <t>SD card malfunction. Change card</t>
         </is>
       </c>
       <c r="B500" t="n">
-        <v>371</v>
+        <v>239</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>RTH Altitude : 98FT. Data Recorder File Index is 1.</t>
+          <t>SD card speed low. Change card</t>
         </is>
       </c>
       <c r="B501" t="n">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>RTH altitude adjusted to nnn</t>
+          <t>SD card write speed is too slow. Not suitable for shooting a 4K video.</t>
         </is>
       </c>
       <c r="B502" t="n">
-        <v>373</v>
+        <v>381</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>RTK Base Station Data Not Received</t>
+          <t>Satellite positioning off. Fly with Caution.</t>
         </is>
       </c>
       <c r="B503" t="n">
-        <v>374</v>
+        <v>378</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>RTK Base Station Data Not Received. Please make sure base station antenna is connected to the correct port</t>
+          <t>Sensing system is blocked or too close to the obstacle.</t>
         </is>
       </c>
       <c r="B504" t="n">
-        <v>375</v>
+        <v>382</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>RTK signal weak. Move to an open area for takeoff or turn off RTK</t>
+          <t>Set Flight Mode to GPS to fly safe</t>
         </is>
       </c>
       <c r="B505" t="n">
-        <v>376</v>
+        <v>383</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>Running Flight Simulator. Restart aircraft to take off</t>
+          <t>Setting new Maximum Flight Altitude to nnn</t>
         </is>
       </c>
       <c r="B506" t="n">
-        <v>377</v>
+        <v>384</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>Satellite positioning off. Fly with Caution.</t>
+          <t>Setting new Return-To-Home altitude to nnn</t>
         </is>
       </c>
       <c r="B507" t="n">
-        <v>378</v>
+        <v>385</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>SD card full. Change card or delete files</t>
+          <t>Signal Lost. Aircraft returning to Home Point</t>
         </is>
       </c>
       <c r="B508" t="n">
-        <v>379</v>
+        <v>386</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>SD card speed low. Change card</t>
+          <t>Sprayer turned OFF, sprayed nnn at nnn liters/min</t>
         </is>
       </c>
       <c r="B509" t="n">
-        <v>380</v>
+        <v>387</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>SD card write speed is too slow. Not suitable for shooting a 4K video.</t>
+          <t>Sprayer turned ON</t>
         </is>
       </c>
       <c r="B510" t="n">
-        <v>381</v>
+        <v>388</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>Sensing system is blocked or too close to the obstacle.</t>
+          <t>Starting Smart Track</t>
         </is>
       </c>
       <c r="B511" t="n">
-        <v>382</v>
+        <v>389</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>Set Flight Mode to GPS to fly safe</t>
+          <t>Strong Aircraft Interference</t>
         </is>
       </c>
       <c r="B512" t="n">
-        <v>383</v>
+        <v>390</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>Setting new Maximum Flight Altitude to nnn</t>
+          <t>Strong Interference Detected. Be careful when flying long distances.</t>
         </is>
       </c>
       <c r="B513" t="n">
-        <v>384</v>
+        <v>391</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>Setting new Return-To-Home altitude to nnn</t>
+          <t>Strong Interference Now. Fly with caution.</t>
         </is>
       </c>
       <c r="B514" t="n">
-        <v>385</v>
+        <v>392</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>Signal Lost. Aircraft returning to Home Point</t>
+          <t>Strong Interference to Aircraft. Signal interruption may be more likely. Fly with caution.</t>
         </is>
       </c>
       <c r="B515" t="n">
-        <v>386</v>
+        <v>393</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>Sprayer turned OFF, sprayed nnn at nnn liters/min</t>
+          <t>Strong Interference to Remote Controller. Signal interruption maybe more likely. Fly with caution</t>
         </is>
       </c>
       <c r="B516" t="n">
-        <v>387</v>
+        <v>393</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>Sprayer turned ON</t>
+          <t>Strong Interference. Fly with caution.</t>
         </is>
       </c>
       <c r="B517" t="n">
-        <v>388</v>
+        <v>392</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>Starting Smart Track</t>
+          <t>Strong Remote Controller Interference</t>
         </is>
       </c>
       <c r="B518" t="n">
-        <v>389</v>
+        <v>394</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>Strong Aircraft Interference</t>
+          <t>Strong Remote Controller Interference.</t>
         </is>
       </c>
       <c r="B519" t="n">
-        <v>390</v>
+        <v>394</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>Strong Interference Detected. Be careful when flying long distances.</t>
+          <t>Strong wind warning. Aircraft unable to fly stably. Lower altitude immediately and manually return to home</t>
         </is>
       </c>
       <c r="B520" t="n">
-        <v>391</v>
+        <v>395</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>Strong Interference Now. Fly with caution.</t>
+          <t>Strong wind warning. Aircraft unable to return to home automatically. Lower altitude immediately and return to home manually</t>
         </is>
       </c>
       <c r="B521" t="n">
-        <v>392</v>
+        <v>395</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>Strong Interference. Fly with caution.</t>
+          <t>Strong wind. Fly with caution</t>
         </is>
       </c>
       <c r="B522" t="n">
-        <v>392</v>
+        <v>245</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>Strong Interference to Aircraft. Signal interruption may be more likely. Fly with caution.</t>
+          <t>Strong wireless interference. Please fly with caution.</t>
         </is>
       </c>
       <c r="B523" t="n">
-        <v>393</v>
+        <v>396</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>Strong Interference to Remote Controller. Signal interruption maybe more likely. Fly with caution</t>
+          <t>Strong wireless interference. Please fly with caution. Obstacle Avoidance Disabled. Landing gear lowered. Obstacle Avoidance Disabled.</t>
         </is>
       </c>
       <c r="B524" t="n">
-        <v>393</v>
+        <v>397</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>Strong Remote Controller Interference</t>
+          <t>Subject lost. Reselect subject</t>
         </is>
       </c>
       <c r="B525" t="n">
-        <v>394</v>
+        <v>398</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>Strong Remote Controller Interference.</t>
+          <t>Subject lost. Searching …</t>
         </is>
       </c>
       <c r="B526" t="n">
-        <v>394</v>
+        <v>399</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>Strong wind warning. Aircraft unable to fly stably. Lower altitude immediately and manually return to home</t>
+          <t>Subject too Large. Move Away and retry</t>
         </is>
       </c>
       <c r="B527" t="n">
-        <v>395</v>
+        <v>400</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>Strong wind warning. Aircraft unable to return to home automatically. Lower altitude immediately and return to home manually</t>
+          <t>Subject too Small. Get Closer and retry</t>
         </is>
       </c>
       <c r="B528" t="n">
-        <v>395</v>
+        <v>401</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>Strong wireless interference. Please fly with caution.</t>
+          <t>Switched to A (Attitude)-mode</t>
         </is>
       </c>
       <c r="B529" t="n">
-        <v>396</v>
+        <v>402</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>Strong wireless interference. Please fly with caution. Obstacle Avoidance Disabled. Landing gear lowered. Obstacle Avoidance Disabled.</t>
+          <t>Switched to P (Positioning)-mode.</t>
         </is>
       </c>
       <c r="B530" t="n">
-        <v>397</v>
+        <v>404</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>Subject lost. Reselect subject</t>
+          <t>Switched to S (Sport)-mode.</t>
         </is>
       </c>
       <c r="B531" t="n">
-        <v>398</v>
+        <v>405</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>Subject lost. Searching …</t>
+          <t>Switched to T (Tripod)-mode.</t>
         </is>
       </c>
       <c r="B532" t="n">
-        <v>399</v>
+        <v>406</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>Subject too Large. Move Away and retry</t>
+          <t>Switched to gimbal free mode. Use the RC to control aircraft yaw</t>
         </is>
       </c>
       <c r="B533" t="n">
-        <v>400</v>
+        <v>403</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>Subject too Small. Get Closer and retry</t>
+          <t>Take off and retry this function.</t>
         </is>
       </c>
       <c r="B534" t="n">
-        <v>401</v>
+        <v>407</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>Switched to A (Attitude)-mode</t>
+          <t>Take off in P-Mode</t>
         </is>
       </c>
       <c r="B535" t="n">
-        <v>402</v>
+        <v>408</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>Switched to gimbal free mode. Use the RC to control aircraft yaw</t>
+          <t>Taking Off.</t>
         </is>
       </c>
       <c r="B536" t="n">
-        <v>403</v>
+        <v>409</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>Switched to P (Positioning)-mode.</t>
+          <t>Tap Fly Flight Ended. Landing Gear Lowered</t>
         </is>
       </c>
       <c r="B537" t="n">
-        <v>404</v>
+        <v>410</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>Switched to S (Sport)-mode.</t>
+          <t>Tap the screen lightly to focus.</t>
         </is>
       </c>
       <c r="B538" t="n">
-        <v>405</v>
+        <v>411</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>Switched to T (Tripod)-mode.</t>
+          <t>Tap the screen to focus.</t>
         </is>
       </c>
       <c r="B539" t="n">
-        <v>406</v>
+        <v>411</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>Take off and retry this function.</t>
+          <t>Tap to choose a valid zone.</t>
         </is>
       </c>
       <c r="B540" t="n">
-        <v>407</v>
+        <v>412</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>Take off in P-Mode</t>
+          <t>Target lost. QuickShots stopped</t>
         </is>
       </c>
       <c r="B541" t="n">
-        <v>408</v>
+        <v>413</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>Taking Off.</t>
+          <t>The aircraft is flying back to the start point</t>
         </is>
       </c>
       <c r="B542" t="n">
-        <v>409</v>
+        <v>36</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>Tap Fly Flight Ended. Landing Gear Lowered</t>
+          <t>The flight attitude angle is larger in Sport mode. The gimbal will rotate when the aircraft starts or stops. Use Normal mode if required for stable shooting</t>
         </is>
       </c>
       <c r="B543" t="n">
-        <v>410</v>
+        <v>414</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>Tap the screen lightly to focus.</t>
+          <t>The remaining battery is only enough for RTH. Return home now.</t>
         </is>
       </c>
       <c r="B544" t="n">
-        <v>411</v>
+        <v>415</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>Tap the screen to focus.</t>
+          <t>Tip: Aircraft reached maximum distance, please pay attention to flight safety</t>
         </is>
       </c>
       <c r="B545" t="n">
-        <v>411</v>
+        <v>416</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>Tap to choose a valid zone.</t>
+          <t>Tip: Only the first camera can tap-zoom in dual gimbal control mode</t>
         </is>
       </c>
       <c r="B546" t="n">
-        <v>412</v>
+        <v>417</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>Target lost. QuickShots stopped</t>
+          <t>Tip: When multi-gimbals are controlled together, only the first gimbal spotlight feature is available</t>
         </is>
       </c>
       <c r="B547" t="n">
-        <v>413</v>
+        <v>418</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>The flight attitude angle is larger in Sport mode. The gimbal will rotate when the aircraft starts or stops. Use Normal mode if required for stable shooting</t>
+          <t>To take off in non-P mode, toggle Flight Mode Switch to another mode and then toggle it back.</t>
         </is>
       </c>
       <c r="B548" t="n">
-        <v>414</v>
+        <v>419</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>The remaining battery is only enough for RTH. Return home now.</t>
+          <t>Unable to take off</t>
         </is>
       </c>
       <c r="B549" t="n">
-        <v>415</v>
+        <v>420</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>Warning. The remaining battery is only enough for RTH. Return home now.</t>
+          <t>Unable to take off in low light environment. Ensure there are no metal and magnetic objects near the aircraft and calibrate compass</t>
         </is>
       </c>
       <c r="B550" t="n">
-        <v>415</v>
+        <v>421</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>Tip: Aircraft reached maximum distance, please pay attention to flight safety</t>
+          <t>Unknown Error, Cannot Takeoff. Contact DJI support</t>
         </is>
       </c>
       <c r="B551" t="n">
-        <v>416</v>
+        <v>422</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>Tip: Only the first camera can tap-zoom in dual gimbal control mode</t>
+          <t>Upward Obstacle Detected</t>
         </is>
       </c>
       <c r="B552" t="n">
-        <v>417</v>
+        <v>423</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>Tip: When multi-gimbals are controlled together, only the first gimbal spotlight feature is available</t>
+          <t>Video cache has stopped because there is not enough storage space. You can enable Auto Cache Clear or manually delete cache to get enough space</t>
         </is>
       </c>
       <c r="B553" t="n">
-        <v>418</v>
+        <v>424</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>To take off in non-P mode, toggle Flight Mode Switch to another mode and then toggle it back.</t>
+          <t>Vision sensor error. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B554" t="n">
-        <v>419</v>
+        <v>120</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>Unable to take off</t>
+          <t>Vision sensor(s) blocked. Fly with caution</t>
         </is>
       </c>
       <c r="B555" t="n">
-        <v>420</v>
+        <v>425</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>Unable to take off in low light environment. Ensure there are no metal and magnetic objects near the aircraft and calibrate compass</t>
+          <t>Vision systems and obstacle avoidance disabled</t>
         </is>
       </c>
       <c r="B556" t="n">
-        <v>421</v>
+        <v>426</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>Unknown Error, Cannot Takeoff. Contact DJI support</t>
+          <t>Visual positioning inaccurate. Fly with caution</t>
         </is>
       </c>
       <c r="B557" t="n">
-        <v>422</v>
+        <v>427</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>Upward Obstacle Detected</t>
+          <t>Warning</t>
         </is>
       </c>
       <c r="B558" t="n">
-        <v>423</v>
+        <v>428</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>Video cache has stopped because there is not enough storage space. You can enable Auto Cache Clear or manually delete cache to get enough space</t>
+          <t>Warning. The remaining battery is only enough for RTH. Return home now.</t>
         </is>
       </c>
       <c r="B559" t="n">
-        <v>424</v>
+        <v>415</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>Vision sensor(s) blocked. Fly with caution</t>
+          <t>Warning: Aircraft is less than nnn (minimum) away from the object below</t>
         </is>
       </c>
       <c r="B560" t="n">
-        <v>425</v>
+        <v>429</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>Vision systems and obstacle avoidance disabled</t>
+          <t>Warning: Battery Temperature Below 15°C (59F). Warm battery to above 25°C (77F) before flying</t>
         </is>
       </c>
       <c r="B561" t="n">
-        <v>426</v>
+        <v>430</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>Visual positioning inaccurate. Fly with caution</t>
+          <t>Warning: Command Failed</t>
         </is>
       </c>
       <c r="B562" t="n">
-        <v>427</v>
+        <v>157</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>Warning</t>
+          <t>Warning: Command Timeout</t>
         </is>
       </c>
       <c r="B563" t="n">
-        <v>428</v>
+        <v>431</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>Warning: Aircraft is less than nnn (minimum) away from the object below</t>
+          <t>Warning: Critically low battery. Please change the battery</t>
         </is>
       </c>
       <c r="B564" t="n">
-        <v>429</v>
+        <v>432</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>Warning: Battery Temperature Below 15°C (59F). Warm battery to above 25°C (77F) before flying</t>
+          <t>Warning: Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
         </is>
       </c>
       <c r="B565" t="n">
-        <v>430</v>
+        <v>301</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>Warning: Command Timeout</t>
+          <t>Warning: Motor Obstructed</t>
         </is>
       </c>
       <c r="B566" t="n">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>Warning: Critically low battery. Please change the battery</t>
+          <t>Warning: Motor Overloaded. Aircraft will decelerate to ensure safety</t>
         </is>
       </c>
       <c r="B567" t="n">
-        <v>432</v>
+        <v>434</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>Warning: Motor Obstructed</t>
+          <t>Waypoint Mission Paused</t>
         </is>
       </c>
       <c r="B568" t="n">
-        <v>433</v>
+        <v>435</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>Warning: Motor Overloaded. Aircraft will decelerate to ensure safety</t>
+          <t>Waypoint Mission Resumed</t>
         </is>
       </c>
       <c r="B569" t="n">
-        <v>434</v>
+        <v>436</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>Waypoint Mission Paused</t>
+          <t>Waypoint Mission Start</t>
         </is>
       </c>
       <c r="B570" t="n">
-        <v>435</v>
+        <v>437</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>Waypoint Mission Resumed</t>
+          <t>Weak GPS signal. Aircraft is in Attitude mode and hovering may be unstable. Fly with caution.</t>
         </is>
       </c>
       <c r="B571" t="n">
-        <v>436</v>
+        <v>260</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>Waypoint Mission Start</t>
+          <t>Weak GPS signal. Positioning accuracy may be compromised. Please fly with caution</t>
         </is>
       </c>
       <c r="B572" t="n">
-        <v>437</v>
+        <v>260</v>
       </c>
     </row>
     <row r="573">
